--- a/time_series_world.xlsx
+++ b/time_series_world.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>1/22/20</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>5/8/20</t>
+  </si>
+  <si>
+    <t>5/9/20</t>
   </si>
   <si>
     <t>Afghanistan</t>
@@ -969,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE94"/>
+  <dimension ref="A1:DF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -977,7 +980,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:110">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,10 +1305,13 @@
       <c r="DE1" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:109">
+    <row r="2" spans="1:110">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="s"/>
@@ -1565,10 +1571,13 @@
       <c r="DE2" t="n">
         <v>3778</v>
       </c>
+      <c r="DF2" t="n">
+        <v>4033</v>
+      </c>
     </row>
-    <row r="3" spans="1:109">
+    <row r="3" spans="1:110">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -1826,10 +1835,13 @@
       <c r="DE3" t="n">
         <v>5369</v>
       </c>
+      <c r="DF3" t="n">
+        <v>5558</v>
+      </c>
     </row>
-    <row r="4" spans="1:109">
+    <row r="4" spans="1:110">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -2073,10 +2085,13 @@
       <c r="DE4" t="n">
         <v>5611</v>
       </c>
+      <c r="DF4" t="n">
+        <v>5776</v>
+      </c>
     </row>
-    <row r="5" spans="1:109">
+    <row r="5" spans="1:110">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -2324,10 +2339,13 @@
       <c r="DE5" t="n">
         <v>3029</v>
       </c>
+      <c r="DF5" t="n">
+        <v>3175</v>
+      </c>
     </row>
-    <row r="6" spans="1:109">
+    <row r="6" spans="1:110">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -2645,10 +2663,13 @@
       <c r="DE6" t="n">
         <v>6918</v>
       </c>
+      <c r="DF6" t="n">
+        <v>6939</v>
+      </c>
     </row>
-    <row r="7" spans="1:109">
+    <row r="7" spans="1:110">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -2906,10 +2927,13 @@
       <c r="DE7" t="n">
         <v>15774</v>
       </c>
+      <c r="DF7" t="n">
+        <v>15833</v>
+      </c>
     </row>
-    <row r="8" spans="1:109">
+    <row r="8" spans="1:110">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -3157,10 +3181,13 @@
       <c r="DE8" t="n">
         <v>2279</v>
       </c>
+      <c r="DF8" t="n">
+        <v>2422</v>
+      </c>
     </row>
-    <row r="9" spans="1:109">
+    <row r="9" spans="1:110">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -3420,10 +3447,13 @@
       <c r="DE9" t="n">
         <v>4444</v>
       </c>
+      <c r="DF9" t="n">
+        <v>4774</v>
+      </c>
     </row>
-    <row r="10" spans="1:109">
+    <row r="10" spans="1:110">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -3657,10 +3687,13 @@
       <c r="DE10" t="n">
         <v>13134</v>
       </c>
+      <c r="DF10" t="n">
+        <v>13770</v>
+      </c>
     </row>
-    <row r="11" spans="1:109">
+    <row r="11" spans="1:110">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -3912,10 +3945,13 @@
       <c r="DE11" t="n">
         <v>21101</v>
       </c>
+      <c r="DF11" t="n">
+        <v>22052</v>
+      </c>
     </row>
-    <row r="12" spans="1:109">
+    <row r="12" spans="1:110">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -4215,10 +4251,13 @@
       <c r="DE12" t="n">
         <v>52011</v>
       </c>
+      <c r="DF12" t="n">
+        <v>52596</v>
+      </c>
     </row>
-    <row r="13" spans="1:109">
+    <row r="13" spans="1:110">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -4446,10 +4485,13 @@
       <c r="DE13" t="n">
         <v>2266</v>
       </c>
+      <c r="DF13" t="n">
+        <v>2437</v>
+      </c>
     </row>
-    <row r="14" spans="1:109">
+    <row r="14" spans="1:110">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s"/>
       <c r="C14" t="s"/>
@@ -4689,10 +4731,13 @@
       <c r="DE14" t="n">
         <v>2070</v>
       </c>
+      <c r="DF14" t="n">
+        <v>2090</v>
+      </c>
     </row>
-    <row r="15" spans="1:109">
+    <row r="15" spans="1:110">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -4948,10 +4993,13 @@
       <c r="DE15" t="n">
         <v>146894</v>
       </c>
+      <c r="DF15" t="n">
+        <v>156061</v>
+      </c>
     </row>
-    <row r="16" spans="1:109">
+    <row r="16" spans="1:110">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -5185,10 +5233,13 @@
       <c r="DE16" t="n">
         <v>1872</v>
       </c>
+      <c r="DF16" t="n">
+        <v>1921</v>
+      </c>
     </row>
-    <row r="17" spans="1:109">
+    <row r="17" spans="1:110">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -5426,10 +5477,13 @@
       <c r="DE17" t="n">
         <v>2267</v>
       </c>
+      <c r="DF17" t="n">
+        <v>2274</v>
+      </c>
     </row>
-    <row r="18" spans="1:109">
+    <row r="18" spans="1:110">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="s"/>
@@ -5747,10 +5801,13 @@
       <c r="DE18" t="n">
         <v>67674</v>
       </c>
+      <c r="DF18" t="n">
+        <v>68918</v>
+      </c>
     </row>
-    <row r="19" spans="1:109">
+    <row r="19" spans="1:110">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -5994,10 +6051,13 @@
       <c r="DE19" t="n">
         <v>25972</v>
       </c>
+      <c r="DF19" t="n">
+        <v>27219</v>
+      </c>
     </row>
-    <row r="20" spans="1:109">
+    <row r="20" spans="1:110">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>548</v>
@@ -6323,10 +6383,13 @@
       <c r="DE20" t="n">
         <v>83976</v>
       </c>
+      <c r="DF20" t="n">
+        <v>83990</v>
+      </c>
     </row>
-    <row r="21" spans="1:109">
+    <row r="21" spans="1:110">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -6564,10 +6627,13 @@
       <c r="DE21" t="n">
         <v>10051</v>
       </c>
+      <c r="DF21" t="n">
+        <v>10495</v>
+      </c>
     </row>
-    <row r="22" spans="1:109">
+    <row r="22" spans="1:110">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -6795,10 +6861,13 @@
       <c r="DE22" t="n">
         <v>1602</v>
       </c>
+      <c r="DF22" t="n">
+        <v>1667</v>
+      </c>
     </row>
-    <row r="23" spans="1:109">
+    <row r="23" spans="1:110">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -7056,10 +7125,13 @@
       <c r="DE23" t="n">
         <v>2161</v>
       </c>
+      <c r="DF23" t="n">
+        <v>2176</v>
+      </c>
     </row>
-    <row r="24" spans="1:109">
+    <row r="24" spans="1:110">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -7285,10 +7357,13 @@
       <c r="DE24" t="n">
         <v>1741</v>
       </c>
+      <c r="DF24" t="n">
+        <v>1754</v>
+      </c>
     </row>
-    <row r="25" spans="1:109">
+    <row r="25" spans="1:110">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -7536,10 +7611,13 @@
       <c r="DE25" t="n">
         <v>8077</v>
       </c>
+      <c r="DF25" t="n">
+        <v>8095</v>
+      </c>
     </row>
-    <row r="26" spans="1:109">
+    <row r="26" spans="1:110">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -7793,10 +7871,13 @@
       <c r="DE26" t="n">
         <v>10416</v>
       </c>
+      <c r="DF26" t="n">
+        <v>10517</v>
+      </c>
     </row>
-    <row r="27" spans="1:109">
+    <row r="27" spans="1:110">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -8010,10 +8091,13 @@
       <c r="DE27" t="n">
         <v>1135</v>
       </c>
+      <c r="DF27" t="n">
+        <v>1189</v>
+      </c>
     </row>
-    <row r="28" spans="1:109">
+    <row r="28" spans="1:110">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -8261,10 +8345,13 @@
       <c r="DE28" t="n">
         <v>9376</v>
       </c>
+      <c r="DF28" t="n">
+        <v>9882</v>
+      </c>
     </row>
-    <row r="29" spans="1:109">
+    <row r="29" spans="1:110">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -8512,10 +8599,13 @@
       <c r="DE29" t="n">
         <v>28818</v>
       </c>
+      <c r="DF29" t="n">
+        <v>29071</v>
+      </c>
     </row>
-    <row r="30" spans="1:109">
+    <row r="30" spans="1:110">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -8795,10 +8885,13 @@
       <c r="DE30" t="n">
         <v>8476</v>
       </c>
+      <c r="DF30" t="n">
+        <v>8964</v>
+      </c>
     </row>
-    <row r="31" spans="1:109">
+    <row r="31" spans="1:110">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -9052,10 +9145,13 @@
       <c r="DE31" t="n">
         <v>1725</v>
       </c>
+      <c r="DF31" t="n">
+        <v>1733</v>
+      </c>
     </row>
-    <row r="32" spans="1:109">
+    <row r="32" spans="1:110">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -9367,10 +9463,13 @@
       <c r="DE32" t="n">
         <v>5738</v>
       </c>
+      <c r="DF32" t="n">
+        <v>5880</v>
+      </c>
     </row>
-    <row r="33" spans="1:109">
+    <row r="33" spans="1:110">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
@@ -9692,10 +9791,13 @@
       <c r="DE33" t="n">
         <v>176202</v>
       </c>
+      <c r="DF33" t="n">
+        <v>176782</v>
+      </c>
     </row>
-    <row r="34" spans="1:109">
+    <row r="34" spans="1:110">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="s"/>
@@ -10011,10 +10113,13 @@
       <c r="DE34" t="n">
         <v>170588</v>
       </c>
+      <c r="DF34" t="n">
+        <v>171324</v>
+      </c>
     </row>
-    <row r="35" spans="1:109">
+    <row r="35" spans="1:110">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -10236,10 +10341,13 @@
       <c r="DE35" t="n">
         <v>4012</v>
       </c>
+      <c r="DF35" t="n">
+        <v>4263</v>
+      </c>
     </row>
-    <row r="36" spans="1:109">
+    <row r="36" spans="1:110">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -10495,10 +10603,13 @@
       <c r="DE36" t="n">
         <v>2691</v>
       </c>
+      <c r="DF36" t="n">
+        <v>2710</v>
+      </c>
     </row>
-    <row r="37" spans="1:109">
+    <row r="37" spans="1:110">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
@@ -10722,10 +10833,13 @@
       <c r="DE37" t="n">
         <v>2009</v>
       </c>
+      <c r="DF37" t="n">
+        <v>2042</v>
+      </c>
     </row>
-    <row r="38" spans="1:109">
+    <row r="38" spans="1:110">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -10953,10 +11067,13 @@
       <c r="DE38" t="n">
         <v>1771</v>
       </c>
+      <c r="DF38" t="n">
+        <v>1830</v>
+      </c>
     </row>
-    <row r="39" spans="1:109">
+    <row r="39" spans="1:110">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -11198,10 +11315,13 @@
       <c r="DE39" t="n">
         <v>3178</v>
       </c>
+      <c r="DF39" t="n">
+        <v>3213</v>
+      </c>
     </row>
-    <row r="40" spans="1:109">
+    <row r="40" spans="1:110">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -11453,10 +11573,13 @@
       <c r="DE40" t="n">
         <v>1801</v>
       </c>
+      <c r="DF40" t="n">
+        <v>1801</v>
+      </c>
     </row>
-    <row r="41" spans="1:109">
+    <row r="41" spans="1:110">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="s"/>
@@ -11766,10 +11889,13 @@
       <c r="DE41" t="n">
         <v>59695</v>
       </c>
+      <c r="DF41" t="n">
+        <v>62808</v>
+      </c>
     </row>
-    <row r="42" spans="1:109">
+    <row r="42" spans="1:110">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
@@ -12015,10 +12141,13 @@
       <c r="DE42" t="n">
         <v>13112</v>
       </c>
+      <c r="DF42" t="n">
+        <v>13645</v>
+      </c>
     </row>
-    <row r="43" spans="1:109">
+    <row r="43" spans="1:110">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -12288,10 +12417,13 @@
       <c r="DE43" t="n">
         <v>104691</v>
       </c>
+      <c r="DF43" t="n">
+        <v>106220</v>
+      </c>
     </row>
-    <row r="44" spans="1:109">
+    <row r="44" spans="1:110">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
@@ -12551,10 +12683,13 @@
       <c r="DE44" t="n">
         <v>2603</v>
       </c>
+      <c r="DF44" t="n">
+        <v>2679</v>
+      </c>
     </row>
-    <row r="45" spans="1:109">
+    <row r="45" spans="1:110">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s"/>
@@ -12804,10 +12939,13 @@
       <c r="DE45" t="n">
         <v>22541</v>
       </c>
+      <c r="DF45" t="n">
+        <v>22760</v>
+      </c>
     </row>
-    <row r="46" spans="1:109">
+    <row r="46" spans="1:110">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -13073,10 +13211,13 @@
       <c r="DE46" t="n">
         <v>16436</v>
       </c>
+      <c r="DF46" t="n">
+        <v>16454</v>
+      </c>
     </row>
-    <row r="47" spans="1:109">
+    <row r="47" spans="1:110">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="s"/>
@@ -13384,10 +13525,13 @@
       <c r="DE47" t="n">
         <v>217185</v>
       </c>
+      <c r="DF47" t="n">
+        <v>218268</v>
+      </c>
     </row>
-    <row r="48" spans="1:109">
+    <row r="48" spans="1:110">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
@@ -13713,10 +13857,13 @@
       <c r="DE48" t="n">
         <v>15575</v>
       </c>
+      <c r="DF48" t="n">
+        <v>15663</v>
+      </c>
     </row>
-    <row r="49" spans="1:109">
+    <row r="49" spans="1:110">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="s"/>
@@ -13940,10 +14087,13 @@
       <c r="DE49" t="n">
         <v>4834</v>
       </c>
+      <c r="DF49" t="n">
+        <v>4975</v>
+      </c>
     </row>
-    <row r="50" spans="1:109">
+    <row r="50" spans="1:110">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -14269,10 +14419,13 @@
       <c r="DE50" t="n">
         <v>10840</v>
       </c>
+      <c r="DF50" t="n">
+        <v>10874</v>
+      </c>
     </row>
-    <row r="51" spans="1:109">
+    <row r="51" spans="1:110">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
@@ -14532,10 +14685,13 @@
       <c r="DE51" t="n">
         <v>7208</v>
       </c>
+      <c r="DF51" t="n">
+        <v>7623</v>
+      </c>
     </row>
-    <row r="52" spans="1:109">
+    <row r="52" spans="1:110">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -14787,10 +14943,13 @@
       <c r="DE52" t="n">
         <v>1436</v>
       </c>
+      <c r="DF52" t="n">
+        <v>1444</v>
+      </c>
     </row>
-    <row r="53" spans="1:109">
+    <row r="53" spans="1:110">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
@@ -15040,10 +15199,13 @@
       <c r="DE53" t="n">
         <v>3871</v>
       </c>
+      <c r="DF53" t="n">
+        <v>3877</v>
+      </c>
     </row>
-    <row r="54" spans="1:109">
+    <row r="54" spans="1:110">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s"/>
@@ -15363,10 +15525,13 @@
       <c r="DE54" t="n">
         <v>6535</v>
       </c>
+      <c r="DF54" t="n">
+        <v>6589</v>
+      </c>
     </row>
-    <row r="55" spans="1:109">
+    <row r="55" spans="1:110">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
@@ -15618,10 +15783,13 @@
       <c r="DE55" t="n">
         <v>31522</v>
       </c>
+      <c r="DF55" t="n">
+        <v>33460</v>
+      </c>
     </row>
-    <row r="56" spans="1:109">
+    <row r="56" spans="1:110">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
@@ -15855,10 +16023,13 @@
       <c r="DE56" t="n">
         <v>4728</v>
       </c>
+      <c r="DF56" t="n">
+        <v>4867</v>
+      </c>
     </row>
-    <row r="57" spans="1:109">
+    <row r="57" spans="1:110">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
@@ -16104,10 +16275,13 @@
       <c r="DE57" t="n">
         <v>5711</v>
       </c>
+      <c r="DF57" t="n">
+        <v>5910</v>
+      </c>
     </row>
-    <row r="58" spans="1:109">
+    <row r="58" spans="1:110">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
@@ -16361,10 +16535,13 @@
       <c r="DE58" t="n">
         <v>42292</v>
       </c>
+      <c r="DF58" t="n">
+        <v>42581</v>
+      </c>
     </row>
-    <row r="59" spans="1:109">
+    <row r="59" spans="1:110">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s"/>
@@ -16616,10 +16793,13 @@
       <c r="DE59" t="n">
         <v>1492</v>
       </c>
+      <c r="DF59" t="n">
+        <v>1494</v>
+      </c>
     </row>
-    <row r="60" spans="1:109">
+    <row r="60" spans="1:110">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
@@ -16871,10 +17051,13 @@
       <c r="DE60" t="n">
         <v>3912</v>
       </c>
+      <c r="DF60" t="n">
+        <v>4151</v>
+      </c>
     </row>
-    <row r="61" spans="1:109">
+    <row r="61" spans="1:110">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
@@ -17130,10 +17313,13 @@
       <c r="DE61" t="n">
         <v>1586</v>
       </c>
+      <c r="DF61" t="n">
+        <v>1622</v>
+      </c>
     </row>
-    <row r="62" spans="1:109">
+    <row r="62" spans="1:110">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
@@ -17389,10 +17575,13 @@
       <c r="DE62" t="n">
         <v>8070</v>
       </c>
+      <c r="DF62" t="n">
+        <v>8099</v>
+      </c>
     </row>
-    <row r="63" spans="1:109">
+    <row r="63" spans="1:110">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="s"/>
@@ -17652,10 +17841,13 @@
       <c r="DE63" t="n">
         <v>3112</v>
       </c>
+      <c r="DF63" t="n">
+        <v>3224</v>
+      </c>
     </row>
-    <row r="64" spans="1:109">
+    <row r="64" spans="1:110">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
@@ -17911,10 +18103,13 @@
       <c r="DE64" t="n">
         <v>26435</v>
       </c>
+      <c r="DF64" t="n">
+        <v>28736</v>
+      </c>
     </row>
-    <row r="65" spans="1:109">
+    <row r="65" spans="1:110">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
@@ -18144,10 +18339,13 @@
       <c r="DE65" t="n">
         <v>8070</v>
       </c>
+      <c r="DF65" t="n">
+        <v>8282</v>
+      </c>
     </row>
-    <row r="66" spans="1:109">
+    <row r="66" spans="1:110">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -18385,10 +18583,13 @@
       <c r="DE66" t="n">
         <v>61847</v>
       </c>
+      <c r="DF66" t="n">
+        <v>65015</v>
+      </c>
     </row>
-    <row r="67" spans="1:109">
+    <row r="67" spans="1:110">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="s"/>
@@ -18698,10 +18899,13 @@
       <c r="DE67" t="n">
         <v>10463</v>
       </c>
+      <c r="DF67" t="n">
+        <v>10610</v>
+      </c>
     </row>
-    <row r="68" spans="1:109">
+    <row r="68" spans="1:110">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="s"/>
@@ -18943,10 +19147,13 @@
       <c r="DE68" t="n">
         <v>15366</v>
       </c>
+      <c r="DF68" t="n">
+        <v>15651</v>
+      </c>
     </row>
-    <row r="69" spans="1:109">
+    <row r="69" spans="1:110">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="s"/>
@@ -19192,10 +19399,13 @@
       <c r="DE69" t="n">
         <v>27268</v>
       </c>
+      <c r="DF69" t="n">
+        <v>27406</v>
+      </c>
     </row>
-    <row r="70" spans="1:109">
+    <row r="70" spans="1:110">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s"/>
       <c r="C70" t="s"/>
@@ -19445,10 +19655,13 @@
       <c r="DE70" t="n">
         <v>20201</v>
       </c>
+      <c r="DF70" t="n">
+        <v>21331</v>
+      </c>
     </row>
-    <row r="71" spans="1:109">
+    <row r="71" spans="1:110">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s"/>
       <c r="C71" t="s"/>
@@ -19704,10 +19917,13 @@
       <c r="DE71" t="n">
         <v>14811</v>
       </c>
+      <c r="DF71" t="n">
+        <v>15131</v>
+      </c>
     </row>
-    <row r="72" spans="1:109">
+    <row r="72" spans="1:110">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s"/>
       <c r="C72" t="s"/>
@@ -20015,10 +20231,13 @@
       <c r="DE72" t="n">
         <v>187859</v>
       </c>
+      <c r="DF72" t="n">
+        <v>198676</v>
+      </c>
     </row>
-    <row r="73" spans="1:109">
+    <row r="73" spans="1:110">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s"/>
       <c r="C73" t="s"/>
@@ -20264,10 +20483,13 @@
       <c r="DE73" t="n">
         <v>35432</v>
       </c>
+      <c r="DF73" t="n">
+        <v>37136</v>
+      </c>
     </row>
-    <row r="74" spans="1:109">
+    <row r="74" spans="1:110">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s"/>
       <c r="C74" t="s"/>
@@ -20513,10 +20735,13 @@
       <c r="DE74" t="n">
         <v>1551</v>
       </c>
+      <c r="DF74" t="n">
+        <v>1634</v>
+      </c>
     </row>
-    <row r="75" spans="1:109">
+    <row r="75" spans="1:110">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s"/>
       <c r="C75" t="s"/>
@@ -20754,10 +20979,13 @@
       <c r="DE75" t="n">
         <v>9943</v>
       </c>
+      <c r="DF75" t="n">
+        <v>10032</v>
+      </c>
     </row>
-    <row r="76" spans="1:109">
+    <row r="76" spans="1:110">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s"/>
       <c r="C76" t="n">
@@ -21081,10 +21309,13 @@
       <c r="DE76" t="n">
         <v>21707</v>
       </c>
+      <c r="DF76" t="n">
+        <v>22460</v>
+      </c>
     </row>
-    <row r="77" spans="1:109">
+    <row r="77" spans="1:110">
       <c r="A77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s"/>
       <c r="C77" t="s"/>
@@ -21322,10 +21553,13 @@
       <c r="DE77" t="n">
         <v>1455</v>
       </c>
+      <c r="DF77" t="n">
+        <v>1455</v>
+      </c>
     </row>
-    <row r="78" spans="1:109">
+    <row r="78" spans="1:110">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s"/>
       <c r="C78" t="s"/>
@@ -21565,10 +21799,13 @@
       <c r="DE78" t="n">
         <v>1450</v>
       </c>
+      <c r="DF78" t="n">
+        <v>1454</v>
+      </c>
     </row>
-    <row r="79" spans="1:109">
+    <row r="79" spans="1:110">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s"/>
       <c r="C79" t="s"/>
@@ -21808,10 +22045,13 @@
       <c r="DE79" t="n">
         <v>8895</v>
       </c>
+      <c r="DF79" t="n">
+        <v>9420</v>
+      </c>
     </row>
-    <row r="80" spans="1:109">
+    <row r="80" spans="1:110">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s"/>
       <c r="C80" t="s"/>
@@ -22117,10 +22357,13 @@
       <c r="DE80" t="n">
         <v>222857</v>
       </c>
+      <c r="DF80" t="n">
+        <v>223578</v>
+      </c>
     </row>
-    <row r="81" spans="1:109">
+    <row r="81" spans="1:110">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s"/>
       <c r="C81" t="s"/>
@@ -22344,10 +22587,13 @@
       <c r="DE81" t="n">
         <v>1111</v>
       </c>
+      <c r="DF81" t="n">
+        <v>1164</v>
+      </c>
     </row>
-    <row r="82" spans="1:109">
+    <row r="82" spans="1:110">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s"/>
       <c r="C82" t="s"/>
@@ -22655,10 +22901,13 @@
       <c r="DE82" t="n">
         <v>25265</v>
       </c>
+      <c r="DF82" t="n">
+        <v>25921</v>
+      </c>
     </row>
-    <row r="83" spans="1:109">
+    <row r="83" spans="1:110">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s"/>
       <c r="C83" t="s"/>
@@ -22916,10 +23165,13 @@
       <c r="DE83" t="n">
         <v>30207</v>
       </c>
+      <c r="DF83" t="n">
+        <v>30251</v>
+      </c>
     </row>
-    <row r="84" spans="1:109">
+    <row r="84" spans="1:110">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" t="n">
         <v>2</v>
@@ -23245,10 +23497,13 @@
       <c r="DE84" t="n">
         <v>3000</v>
       </c>
+      <c r="DF84" t="n">
+        <v>3004</v>
+      </c>
     </row>
-    <row r="85" spans="1:109">
+    <row r="85" spans="1:110">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s"/>
       <c r="C85" t="s"/>
@@ -23490,10 +23745,13 @@
       <c r="DE85" t="n">
         <v>1030</v>
       </c>
+      <c r="DF85" t="n">
+        <v>1032</v>
+      </c>
     </row>
-    <row r="86" spans="1:109">
+    <row r="86" spans="1:110">
       <c r="A86" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s"/>
       <c r="C86" t="s"/>
@@ -23721,10 +23979,13 @@
       <c r="DE86" t="n">
         <v>135569</v>
       </c>
+      <c r="DF86" t="n">
+        <v>137115</v>
+      </c>
     </row>
-    <row r="87" spans="1:109">
+    <row r="87" spans="1:110">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -24042,7 +24303,7 @@
         <v>1204351</v>
       </c>
       <c r="DC87" t="n">
-        <v>1228603</v>
+        <v>1229331</v>
       </c>
       <c r="DD87" t="n">
         <v>1257023</v>
@@ -24050,10 +24311,13 @@
       <c r="DE87" t="n">
         <v>1283929</v>
       </c>
+      <c r="DF87" t="n">
+        <v>1309550</v>
+      </c>
     </row>
-    <row r="88" spans="1:109">
+    <row r="88" spans="1:110">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s"/>
       <c r="C88" t="s"/>
@@ -24297,10 +24561,13 @@
       <c r="DE88" t="n">
         <v>14195</v>
       </c>
+      <c r="DF88" t="n">
+        <v>14710</v>
+      </c>
     </row>
-    <row r="89" spans="1:109">
+    <row r="89" spans="1:110">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" t="s"/>
       <c r="C89" t="s"/>
@@ -24612,10 +24879,13 @@
       <c r="DE89" t="n">
         <v>16793</v>
       </c>
+      <c r="DF89" t="n">
+        <v>17417</v>
+      </c>
     </row>
-    <row r="90" spans="1:109">
+    <row r="90" spans="1:110">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s"/>
       <c r="C90" t="s"/>
@@ -24923,10 +25193,13 @@
       <c r="DE90" t="n">
         <v>212629</v>
       </c>
+      <c r="DF90" t="n">
+        <v>216525</v>
+      </c>
     </row>
-    <row r="91" spans="1:109">
+    <row r="91" spans="1:110">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s"/>
       <c r="C91" t="s"/>
@@ -25146,10 +25419,13 @@
       <c r="DE91" t="n">
         <v>2325</v>
       </c>
+      <c r="DF91" t="n">
+        <v>2349</v>
+      </c>
     </row>
-    <row r="92" spans="1:109">
+    <row r="92" spans="1:110">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" t="n">
         <v>26</v>
@@ -25475,10 +25751,13 @@
       <c r="DE92" t="n">
         <v>1589</v>
       </c>
+      <c r="DF92" t="n">
+        <v>1589</v>
+      </c>
     </row>
-    <row r="93" spans="1:109">
+    <row r="93" spans="1:110">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" t="s"/>
       <c r="C93" t="n">
@@ -25802,10 +26081,13 @@
       <c r="DE93" t="n">
         <v>1044</v>
       </c>
+      <c r="DF93" t="n">
+        <v>1044</v>
+      </c>
     </row>
-    <row r="94" spans="1:109">
+    <row r="94" spans="1:110">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" t="n">
         <v>444</v>
@@ -26130,6 +26412,9 @@
       </c>
       <c r="DE94" t="n">
         <v>68128</v>
+      </c>
+      <c r="DF94" t="n">
+        <v>68129</v>
       </c>
     </row>
   </sheetData>
@@ -26143,7 +26428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DE94"/>
+  <dimension ref="A1:DF94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26151,7 +26436,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:109">
+    <row r="1" spans="1:110">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -26476,10 +26761,13 @@
       <c r="DE1" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:109">
+    <row r="2" spans="1:110">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="s"/>
@@ -26739,10 +27027,13 @@
       <c r="DE2" t="n">
         <v>3306</v>
       </c>
+      <c r="DF2" t="n">
+        <v>3531</v>
+      </c>
     </row>
-    <row r="3" spans="1:109">
+    <row r="3" spans="1:110">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -27000,10 +27291,13 @@
       <c r="DE3" t="n">
         <v>2902</v>
       </c>
+      <c r="DF3" t="n">
+        <v>3012</v>
+      </c>
     </row>
-    <row r="4" spans="1:109">
+    <row r="4" spans="1:110">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -27247,10 +27541,13 @@
       <c r="DE4" t="n">
         <v>3952</v>
       </c>
+      <c r="DF4" t="n">
+        <v>4048</v>
+      </c>
     </row>
-    <row r="5" spans="1:109">
+    <row r="5" spans="1:110">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -27498,10 +27795,13 @@
       <c r="DE5" t="n">
         <v>1811</v>
       </c>
+      <c r="DF5" t="n">
+        <v>1908</v>
+      </c>
     </row>
-    <row r="6" spans="1:109">
+    <row r="6" spans="1:110">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -27819,10 +28119,13 @@
       <c r="DE6" t="n">
         <v>796</v>
       </c>
+      <c r="DF6" t="n">
+        <v>798</v>
+      </c>
     </row>
-    <row r="7" spans="1:109">
+    <row r="7" spans="1:110">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -28080,10 +28383,13 @@
       <c r="DE7" t="n">
         <v>1938</v>
       </c>
+      <c r="DF7" t="n">
+        <v>1905</v>
+      </c>
     </row>
-    <row r="8" spans="1:109">
+    <row r="8" spans="1:110">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -28331,10 +28637,13 @@
       <c r="DE8" t="n">
         <v>703</v>
       </c>
+      <c r="DF8" t="n">
+        <v>802</v>
+      </c>
     </row>
-    <row r="9" spans="1:109">
+    <row r="9" spans="1:110">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -28594,10 +28903,13 @@
       <c r="DE9" t="n">
         <v>2416</v>
       </c>
+      <c r="DF9" t="n">
+        <v>2719</v>
+      </c>
     </row>
-    <row r="10" spans="1:109">
+    <row r="10" spans="1:110">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -28831,10 +29143,13 @@
       <c r="DE10" t="n">
         <v>11033</v>
       </c>
+      <c r="DF10" t="n">
+        <v>11356</v>
+      </c>
     </row>
-    <row r="11" spans="1:109">
+    <row r="11" spans="1:110">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -29086,10 +29401,13 @@
       <c r="DE11" t="n">
         <v>15617</v>
       </c>
+      <c r="DF11" t="n">
+        <v>16002</v>
+      </c>
     </row>
-    <row r="12" spans="1:109">
+    <row r="12" spans="1:110">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -29363,10 +29681,13 @@
       <c r="DE12" t="n">
         <v>38810</v>
       </c>
+      <c r="DF12" t="n">
+        <v>39185</v>
+      </c>
     </row>
-    <row r="13" spans="1:109">
+    <row r="13" spans="1:110">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -29594,10 +29915,13 @@
       <c r="DE13" t="n">
         <v>2029</v>
       </c>
+      <c r="DF13" t="n">
+        <v>2179</v>
+      </c>
     </row>
-    <row r="14" spans="1:109">
+    <row r="14" spans="1:110">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s"/>
       <c r="C14" t="s"/>
@@ -29837,10 +30161,13 @@
       <c r="DE14" t="n">
         <v>1110</v>
       </c>
+      <c r="DF14" t="n">
+        <v>1031</v>
+      </c>
     </row>
-    <row r="15" spans="1:109">
+    <row r="15" spans="1:110">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -30096,10 +30423,13 @@
       <c r="DE15" t="n">
         <v>87597</v>
       </c>
+      <c r="DF15" t="n">
+        <v>94376</v>
+      </c>
     </row>
-    <row r="16" spans="1:109">
+    <row r="16" spans="1:110">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -30333,10 +30663,13 @@
       <c r="DE16" t="n">
         <v>1471</v>
       </c>
+      <c r="DF16" t="n">
+        <v>1499</v>
+      </c>
     </row>
-    <row r="17" spans="1:109">
+    <row r="17" spans="1:110">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -30574,10 +30907,13 @@
       <c r="DE17" t="n">
         <v>1265</v>
       </c>
+      <c r="DF17" t="n">
+        <v>1042</v>
+      </c>
     </row>
-    <row r="18" spans="1:109">
+    <row r="18" spans="1:110">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="s"/>
@@ -30895,10 +31231,13 @@
       <c r="DE18" t="n">
         <v>37435</v>
       </c>
+      <c r="DF18" t="n">
+        <v>37656</v>
+      </c>
     </row>
-    <row r="19" spans="1:109">
+    <row r="19" spans="1:110">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -31142,10 +31481,13 @@
       <c r="DE19" t="n">
         <v>13812</v>
       </c>
+      <c r="DF19" t="n">
+        <v>14552</v>
+      </c>
     </row>
-    <row r="20" spans="1:109">
+    <row r="20" spans="1:110">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>520</v>
@@ -31471,10 +31813,13 @@
       <c r="DE20" t="n">
         <v>4983</v>
       </c>
+      <c r="DF20" t="n">
+        <v>4863</v>
+      </c>
     </row>
-    <row r="21" spans="1:109">
+    <row r="21" spans="1:110">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -31712,10 +32057,13 @@
       <c r="DE21" t="n">
         <v>7627</v>
       </c>
+      <c r="DF21" t="n">
+        <v>7926</v>
+      </c>
     </row>
-    <row r="22" spans="1:109">
+    <row r="22" spans="1:110">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -31943,10 +32291,13 @@
       <c r="DE22" t="n">
         <v>848</v>
       </c>
+      <c r="DF22" t="n">
+        <v>898</v>
+      </c>
     </row>
-    <row r="23" spans="1:109">
+    <row r="23" spans="1:110">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -32204,10 +32555,13 @@
       <c r="DE23" t="n">
         <v>472</v>
       </c>
+      <c r="DF23" t="n">
+        <v>450</v>
+      </c>
     </row>
-    <row r="24" spans="1:109">
+    <row r="24" spans="1:110">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -32433,10 +32787,13 @@
       <c r="DE24" t="n">
         <v>663</v>
       </c>
+      <c r="DF24" t="n">
+        <v>614</v>
+      </c>
     </row>
-    <row r="25" spans="1:109">
+    <row r="25" spans="1:110">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -32684,10 +33041,13 @@
       <c r="DE25" t="n">
         <v>3664</v>
       </c>
+      <c r="DF25" t="n">
+        <v>3648</v>
+      </c>
     </row>
-    <row r="26" spans="1:109">
+    <row r="26" spans="1:110">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -32941,10 +33301,13 @@
       <c r="DE26" t="n">
         <v>2291</v>
       </c>
+      <c r="DF26" t="n">
+        <v>2226</v>
+      </c>
     </row>
-    <row r="27" spans="1:109">
+    <row r="27" spans="1:110">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -33158,10 +33521,13 @@
       <c r="DE27" t="n">
         <v>311</v>
       </c>
+      <c r="DF27" t="n">
+        <v>355</v>
+      </c>
     </row>
-    <row r="28" spans="1:109">
+    <row r="28" spans="1:110">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -33409,10 +33775,13 @@
       <c r="DE28" t="n">
         <v>7090</v>
       </c>
+      <c r="DF28" t="n">
+        <v>7298</v>
+      </c>
     </row>
-    <row r="29" spans="1:109">
+    <row r="29" spans="1:110">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -33660,10 +34029,13 @@
       <c r="DE29" t="n">
         <v>25385</v>
       </c>
+      <c r="DF29" t="n">
+        <v>25638</v>
+      </c>
     </row>
-    <row r="30" spans="1:109">
+    <row r="30" spans="1:110">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -33939,10 +34311,13 @@
       <c r="DE30" t="n">
         <v>6531</v>
       </c>
+      <c r="DF30" t="n">
+        <v>6962</v>
+      </c>
     </row>
-    <row r="31" spans="1:109">
+    <row r="31" spans="1:110">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -34196,10 +34571,13 @@
       <c r="DE31" t="n">
         <v>1021</v>
       </c>
+      <c r="DF31" t="n">
+        <v>986</v>
+      </c>
     </row>
-    <row r="32" spans="1:109">
+    <row r="32" spans="1:110">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
@@ -34483,10 +34861,13 @@
       <c r="DE32" t="n">
         <v>1738</v>
       </c>
+      <c r="DF32" t="n">
+        <v>1880</v>
+      </c>
     </row>
-    <row r="33" spans="1:109">
+    <row r="33" spans="1:110">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
@@ -34808,10 +35189,13 @@
       <c r="DE33" t="n">
         <v>120310</v>
       </c>
+      <c r="DF33" t="n">
+        <v>120634</v>
+      </c>
     </row>
-    <row r="34" spans="1:109">
+    <row r="34" spans="1:110">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="s"/>
@@ -35127,10 +35511,13 @@
       <c r="DE34" t="n">
         <v>28888</v>
       </c>
+      <c r="DF34" t="n">
+        <v>28024</v>
+      </c>
     </row>
-    <row r="35" spans="1:109">
+    <row r="35" spans="1:110">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -35352,10 +35739,13 @@
       <c r="DE35" t="n">
         <v>3689</v>
       </c>
+      <c r="DF35" t="n">
+        <v>3885</v>
+      </c>
     </row>
-    <row r="36" spans="1:109">
+    <row r="36" spans="1:110">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -35611,10 +36001,13 @@
       <c r="DE36" t="n">
         <v>1317</v>
       </c>
+      <c r="DF36" t="n">
+        <v>1336</v>
+      </c>
     </row>
-    <row r="37" spans="1:109">
+    <row r="37" spans="1:110">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
@@ -35838,10 +36231,13 @@
       <c r="DE37" t="n">
         <v>1346</v>
       </c>
+      <c r="DF37" t="n">
+        <v>1344</v>
+      </c>
     </row>
-    <row r="38" spans="1:109">
+    <row r="38" spans="1:110">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -36069,10 +36465,13 @@
       <c r="DE38" t="n">
         <v>1579</v>
       </c>
+      <c r="DF38" t="n">
+        <v>1635</v>
+      </c>
     </row>
-    <row r="39" spans="1:109">
+    <row r="39" spans="1:110">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -36314,10 +36713,13 @@
       <c r="DE39" t="n">
         <v>2313</v>
       </c>
+      <c r="DF39" t="n">
+        <v>2309</v>
+      </c>
     </row>
-    <row r="40" spans="1:109">
+    <row r="40" spans="1:110">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -36569,10 +36971,13 @@
       <c r="DE40" t="n">
         <v>36</v>
       </c>
+      <c r="DF40" t="n">
+        <v>28</v>
+      </c>
     </row>
-    <row r="41" spans="1:109">
+    <row r="41" spans="1:110">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="s"/>
@@ -36852,10 +37257,13 @@
       <c r="DE41" t="n">
         <v>41808</v>
       </c>
+      <c r="DF41" t="n">
+        <v>43507</v>
+      </c>
     </row>
-    <row r="42" spans="1:109">
+    <row r="42" spans="1:110">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
@@ -37101,10 +37509,13 @@
       <c r="DE42" t="n">
         <v>10618</v>
       </c>
+      <c r="DF42" t="n">
+        <v>11038</v>
+      </c>
     </row>
-    <row r="43" spans="1:109">
+    <row r="43" spans="1:110">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -37374,10 +37785,13 @@
       <c r="DE43" t="n">
         <v>20854</v>
       </c>
+      <c r="DF43" t="n">
+        <v>21156</v>
+      </c>
     </row>
-    <row r="44" spans="1:109">
+    <row r="44" spans="1:110">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
@@ -37637,10 +38051,13 @@
       <c r="DE44" t="n">
         <v>942</v>
       </c>
+      <c r="DF44" t="n">
+        <v>977</v>
+      </c>
     </row>
-    <row r="45" spans="1:109">
+    <row r="45" spans="1:110">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s"/>
@@ -37890,10 +38307,13 @@
       <c r="DE45" t="n">
         <v>5431</v>
       </c>
+      <c r="DF45" t="n">
+        <v>5650</v>
+      </c>
     </row>
-    <row r="46" spans="1:109">
+    <row r="46" spans="1:110">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -38159,10 +38579,13 @@
       <c r="DE46" t="n">
         <v>5207</v>
       </c>
+      <c r="DF46" t="n">
+        <v>5078</v>
+      </c>
     </row>
-    <row r="47" spans="1:109">
+    <row r="47" spans="1:110">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="s"/>
@@ -38470,10 +38893,13 @@
       <c r="DE47" t="n">
         <v>118162</v>
       </c>
+      <c r="DF47" t="n">
+        <v>115237</v>
+      </c>
     </row>
-    <row r="48" spans="1:109">
+    <row r="48" spans="1:110">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
@@ -38799,10 +39225,13 @@
       <c r="DE48" t="n">
         <v>10429</v>
       </c>
+      <c r="DF48" t="n">
+        <v>9757</v>
+      </c>
     </row>
-    <row r="49" spans="1:109">
+    <row r="49" spans="1:110">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="s"/>
@@ -39026,10 +39455,13 @@
       <c r="DE49" t="n">
         <v>3203</v>
       </c>
+      <c r="DF49" t="n">
+        <v>3199</v>
+      </c>
     </row>
-    <row r="50" spans="1:109">
+    <row r="50" spans="1:110">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -39355,10 +39787,13 @@
       <c r="DE50" t="n">
         <v>1272</v>
       </c>
+      <c r="DF50" t="n">
+        <v>1264</v>
+      </c>
     </row>
-    <row r="51" spans="1:109">
+    <row r="51" spans="1:110">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
@@ -39618,10 +40053,13 @@
       <c r="DE51" t="n">
         <v>4742</v>
       </c>
+      <c r="DF51" t="n">
+        <v>5001</v>
+      </c>
     </row>
-    <row r="52" spans="1:109">
+    <row r="52" spans="1:110">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -39873,10 +40311,13 @@
       <c r="DE52" t="n">
         <v>671</v>
       </c>
+      <c r="DF52" t="n">
+        <v>616</v>
+      </c>
     </row>
-    <row r="53" spans="1:109">
+    <row r="53" spans="1:110">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
@@ -40126,10 +40567,13 @@
       <c r="DE53" t="n">
         <v>345</v>
       </c>
+      <c r="DF53" t="n">
+        <v>327</v>
+      </c>
     </row>
-    <row r="54" spans="1:109">
+    <row r="54" spans="1:110">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="s"/>
@@ -40449,10 +40893,13 @@
       <c r="DE54" t="n">
         <v>1671</v>
       </c>
+      <c r="DF54" t="n">
+        <v>1660</v>
+      </c>
     </row>
-    <row r="55" spans="1:109">
+    <row r="55" spans="1:110">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
@@ -40704,10 +41151,13 @@
       <c r="DE55" t="n">
         <v>11208</v>
       </c>
+      <c r="DF55" t="n">
+        <v>11636</v>
+      </c>
     </row>
-    <row r="56" spans="1:109">
+    <row r="56" spans="1:110">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
@@ -40941,10 +41391,13 @@
       <c r="DE56" t="n">
         <v>2902</v>
       </c>
+      <c r="DF56" t="n">
+        <v>2942</v>
+      </c>
     </row>
-    <row r="57" spans="1:109">
+    <row r="57" spans="1:110">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
@@ -41190,10 +41643,13 @@
       <c r="DE57" t="n">
         <v>3387</v>
       </c>
+      <c r="DF57" t="n">
+        <v>3449</v>
+      </c>
     </row>
-    <row r="58" spans="1:109">
+    <row r="58" spans="1:110">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
@@ -41447,10 +41903,13 @@
       <c r="DE58" t="n">
         <v>42145</v>
       </c>
+      <c r="DF58" t="n">
+        <v>42432</v>
+      </c>
     </row>
-    <row r="59" spans="1:109">
+    <row r="59" spans="1:110">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s"/>
@@ -41702,10 +42161,13 @@
       <c r="DE59" t="n">
         <v>124</v>
       </c>
+      <c r="DF59" t="n">
+        <v>123</v>
+      </c>
     </row>
-    <row r="60" spans="1:109">
+    <row r="60" spans="1:110">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
@@ -41957,10 +42419,13 @@
       <c r="DE60" t="n">
         <v>3233</v>
       </c>
+      <c r="DF60" t="n">
+        <v>3406</v>
+      </c>
     </row>
-    <row r="61" spans="1:109">
+    <row r="61" spans="1:110">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
@@ -42216,10 +42681,13 @@
       <c r="DE61" t="n">
         <v>487</v>
       </c>
+      <c r="DF61" t="n">
+        <v>510</v>
+      </c>
     </row>
-    <row r="62" spans="1:109">
+    <row r="62" spans="1:110">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
@@ -42475,10 +42943,13 @@
       <c r="DE62" t="n">
         <v>8038</v>
       </c>
+      <c r="DF62" t="n">
+        <v>8067</v>
+      </c>
     </row>
-    <row r="63" spans="1:109">
+    <row r="63" spans="1:110">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="s"/>
@@ -42738,10 +43209,13 @@
       <c r="DE63" t="n">
         <v>2087</v>
       </c>
+      <c r="DF63" t="n">
+        <v>2156</v>
+      </c>
     </row>
-    <row r="64" spans="1:109">
+    <row r="64" spans="1:110">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
@@ -42997,10 +43471,13 @@
       <c r="DE64" t="n">
         <v>18905</v>
       </c>
+      <c r="DF64" t="n">
+        <v>20927</v>
+      </c>
     </row>
-    <row r="65" spans="1:109">
+    <row r="65" spans="1:110">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
@@ -43230,10 +43707,13 @@
       <c r="DE65" t="n">
         <v>7184</v>
       </c>
+      <c r="DF65" t="n">
+        <v>3781</v>
+      </c>
     </row>
-    <row r="66" spans="1:109">
+    <row r="66" spans="1:110">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -43471,10 +43951,13 @@
       <c r="DE66" t="n">
         <v>42835</v>
       </c>
+      <c r="DF66" t="n">
+        <v>44769</v>
+      </c>
     </row>
-    <row r="67" spans="1:109">
+    <row r="67" spans="1:110">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="s"/>
@@ -43784,10 +44267,13 @@
       <c r="DE67" t="n">
         <v>8729</v>
       </c>
+      <c r="DF67" t="n">
+        <v>8768</v>
+      </c>
     </row>
-    <row r="68" spans="1:109">
+    <row r="68" spans="1:110">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="s"/>
@@ -44029,10 +44515,13 @@
       <c r="DE68" t="n">
         <v>10182</v>
       </c>
+      <c r="DF68" t="n">
+        <v>10214</v>
+      </c>
     </row>
-    <row r="69" spans="1:109">
+    <row r="69" spans="1:110">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="s"/>
@@ -44278,10 +44767,13 @@
       <c r="DE69" t="n">
         <v>24846</v>
       </c>
+      <c r="DF69" t="n">
+        <v>24907</v>
+      </c>
     </row>
-    <row r="70" spans="1:109">
+    <row r="70" spans="1:110">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s"/>
       <c r="C70" t="s"/>
@@ -44531,10 +45023,13 @@
       <c r="DE70" t="n">
         <v>17831</v>
       </c>
+      <c r="DF70" t="n">
+        <v>18882</v>
+      </c>
     </row>
-    <row r="71" spans="1:109">
+    <row r="71" spans="1:110">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s"/>
       <c r="C71" t="s"/>
@@ -44790,10 +45285,13 @@
       <c r="DE71" t="n">
         <v>8388</v>
       </c>
+      <c r="DF71" t="n">
+        <v>8219</v>
+      </c>
     </row>
-    <row r="72" spans="1:109">
+    <row r="72" spans="1:110">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s"/>
       <c r="C72" t="s"/>
@@ -45063,10 +45561,13 @@
       <c r="DE72" t="n">
         <v>161251</v>
       </c>
+      <c r="DF72" t="n">
+        <v>166760</v>
+      </c>
     </row>
-    <row r="73" spans="1:109">
+    <row r="73" spans="1:110">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s"/>
       <c r="C73" t="s"/>
@@ -45312,10 +45813,13 @@
       <c r="DE73" t="n">
         <v>26312</v>
       </c>
+      <c r="DF73" t="n">
+        <v>26992</v>
+      </c>
     </row>
-    <row r="74" spans="1:109">
+    <row r="74" spans="1:110">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s"/>
       <c r="C74" t="s"/>
@@ -45561,10 +46065,13 @@
       <c r="DE74" t="n">
         <v>940</v>
       </c>
+      <c r="DF74" t="n">
+        <v>991</v>
+      </c>
     </row>
-    <row r="75" spans="1:109">
+    <row r="75" spans="1:110">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s"/>
       <c r="C75" t="s"/>
@@ -45802,10 +46309,13 @@
       <c r="DE75" t="n">
         <v>7490</v>
       </c>
+      <c r="DF75" t="n">
+        <v>7300</v>
+      </c>
     </row>
-    <row r="76" spans="1:109">
+    <row r="76" spans="1:110">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B76" t="s"/>
       <c r="C76" t="n">
@@ -46129,10 +46639,13 @@
       <c r="DE76" t="n">
         <v>19667</v>
       </c>
+      <c r="DF76" t="n">
+        <v>20164</v>
+      </c>
     </row>
-    <row r="77" spans="1:109">
+    <row r="77" spans="1:110">
       <c r="A77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s"/>
       <c r="C77" t="s"/>
@@ -46370,10 +46883,13 @@
       <c r="DE77" t="n">
         <v>550</v>
       </c>
+      <c r="DF77" t="n">
+        <v>536</v>
+      </c>
     </row>
-    <row r="78" spans="1:109">
+    <row r="78" spans="1:110">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s"/>
       <c r="C78" t="s"/>
@@ -46613,10 +47129,13 @@
       <c r="DE78" t="n">
         <v>1198</v>
       </c>
+      <c r="DF78" t="n">
+        <v>1199</v>
+      </c>
     </row>
-    <row r="79" spans="1:109">
+    <row r="79" spans="1:110">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s"/>
       <c r="C79" t="s"/>
@@ -46856,10 +47375,13 @@
       <c r="DE79" t="n">
         <v>5742</v>
       </c>
+      <c r="DF79" t="n">
+        <v>5437</v>
+      </c>
     </row>
-    <row r="80" spans="1:109">
+    <row r="80" spans="1:110">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s"/>
       <c r="C80" t="s"/>
@@ -47145,10 +47667,13 @@
       <c r="DE80" t="n">
         <v>91709</v>
       </c>
+      <c r="DF80" t="n">
+        <v>89626</v>
+      </c>
     </row>
-    <row r="81" spans="1:109">
+    <row r="81" spans="1:110">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s"/>
       <c r="C81" t="s"/>
@@ -47372,10 +47897,13 @@
       <c r="DE81" t="n">
         <v>1009</v>
       </c>
+      <c r="DF81" t="n">
+        <v>1045</v>
+      </c>
     </row>
-    <row r="82" spans="1:109">
+    <row r="82" spans="1:110">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s"/>
       <c r="C82" t="s"/>
@@ -47683,10 +48211,13 @@
       <c r="DE82" t="n">
         <v>20294</v>
       </c>
+      <c r="DF82" t="n">
+        <v>20950</v>
+      </c>
     </row>
-    <row r="83" spans="1:109">
+    <row r="83" spans="1:110">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s"/>
       <c r="C83" t="s"/>
@@ -47944,10 +48475,13 @@
       <c r="DE83" t="n">
         <v>4107</v>
       </c>
+      <c r="DF83" t="n">
+        <v>3851</v>
+      </c>
     </row>
-    <row r="84" spans="1:109">
+    <row r="84" spans="1:110">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" t="n">
         <v>2</v>
@@ -48273,10 +48807,13 @@
       <c r="DE84" t="n">
         <v>216</v>
       </c>
+      <c r="DF84" t="n">
+        <v>217</v>
+      </c>
     </row>
-    <row r="85" spans="1:109">
+    <row r="85" spans="1:110">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s"/>
       <c r="C85" t="s"/>
@@ -48518,10 +49055,13 @@
       <c r="DE85" t="n">
         <v>392</v>
       </c>
+      <c r="DF85" t="n">
+        <v>372</v>
+      </c>
     </row>
-    <row r="86" spans="1:109">
+    <row r="86" spans="1:110">
       <c r="A86" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s"/>
       <c r="C86" t="s"/>
@@ -48749,10 +49289,13 @@
       <c r="DE86" t="n">
         <v>49173</v>
       </c>
+      <c r="DF86" t="n">
+        <v>47635</v>
+      </c>
     </row>
-    <row r="87" spans="1:109">
+    <row r="87" spans="1:110">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" t="n">
         <v>1</v>
@@ -49070,7 +49613,7 @@
         <v>1014560</v>
       </c>
       <c r="DC87" t="n">
-        <v>1038693</v>
+        <v>1039421</v>
       </c>
       <c r="DD87" t="n">
         <v>1061987</v>
@@ -49078,10 +49621,13 @@
       <c r="DE87" t="n">
         <v>1084936</v>
       </c>
+      <c r="DF87" t="n">
+        <v>1097016</v>
+      </c>
     </row>
-    <row r="88" spans="1:109">
+    <row r="88" spans="1:110">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s"/>
       <c r="C88" t="s"/>
@@ -49325,10 +49871,13 @@
       <c r="DE88" t="n">
         <v>11489</v>
       </c>
+      <c r="DF88" t="n">
+        <v>11801</v>
+      </c>
     </row>
-    <row r="89" spans="1:109">
+    <row r="89" spans="1:110">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" t="s"/>
       <c r="C89" t="s"/>
@@ -49640,10 +50189,13 @@
       <c r="DE89" t="n">
         <v>12956</v>
       </c>
+      <c r="DF89" t="n">
+        <v>13122</v>
+      </c>
     </row>
-    <row r="90" spans="1:109">
+    <row r="90" spans="1:110">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s"/>
       <c r="C90" t="s"/>
@@ -49951,10 +50503,13 @@
       <c r="DE90" t="n">
         <v>211632</v>
       </c>
+      <c r="DF90" t="n">
+        <v>215524</v>
+      </c>
     </row>
-    <row r="91" spans="1:109">
+    <row r="91" spans="1:110">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s"/>
       <c r="C91" t="s"/>
@@ -50174,10 +50729,13 @@
       <c r="DE91" t="n">
         <v>550</v>
       </c>
+      <c r="DF91" t="n">
+        <v>503</v>
+      </c>
     </row>
-    <row r="92" spans="1:109">
+    <row r="92" spans="1:110">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" t="n">
         <v>26</v>
@@ -50503,10 +51061,13 @@
       <c r="DE92" t="n">
         <v>14</v>
       </c>
+      <c r="DF92" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row r="93" spans="1:109">
+    <row r="93" spans="1:110">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" t="s"/>
       <c r="C93" t="n">
@@ -50830,10 +51391,13 @@
       <c r="DE93" t="n">
         <v>84</v>
       </c>
+      <c r="DF93" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row r="94" spans="1:109">
+    <row r="94" spans="1:110">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" t="n">
         <v>416</v>
@@ -51158,6 +51722,9 @@
       </c>
       <c r="DE94" t="n">
         <v>4512</v>
+      </c>
+      <c r="DF94" t="n">
+        <v>4513</v>
       </c>
     </row>
   </sheetData>
@@ -51171,7 +51738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX94"/>
+  <dimension ref="A1:CY94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -51179,7 +51746,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:103">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -51483,10 +52050,13 @@
       <c r="CX1" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:103">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="s"/>
@@ -51727,10 +52297,13 @@
       <c r="CX2" t="n">
         <v>1443</v>
       </c>
+      <c r="CY2" t="n">
+        <v>1564</v>
+      </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:103">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -51981,10 +52554,13 @@
       <c r="CX3" t="n">
         <v>1215</v>
       </c>
+      <c r="CY3" t="n">
+        <v>1263</v>
+      </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:103">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -52221,10 +52797,13 @@
       <c r="CX4" t="n">
         <v>1079</v>
       </c>
+      <c r="CY4" t="n">
+        <v>1095</v>
+      </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:103">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -52457,10 +53036,13 @@
       <c r="CX5" t="n">
         <v>881</v>
       </c>
+      <c r="CY5" t="n">
+        <v>902</v>
+      </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:103">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>6</v>
@@ -52735,10 +53317,13 @@
       <c r="CX6" t="n">
         <v>140</v>
       </c>
+      <c r="CY6" t="n">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:102">
+    <row r="7" spans="1:103">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -52989,10 +53574,13 @@
       <c r="CX7" t="n">
         <v>243</v>
       </c>
+      <c r="CY7" t="n">
+        <v>275</v>
+      </c>
     </row>
-    <row r="8" spans="1:102">
+    <row r="8" spans="1:103">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -53233,10 +53821,13 @@
       <c r="CX8" t="n">
         <v>425</v>
       </c>
+      <c r="CY8" t="n">
+        <v>528</v>
+      </c>
     </row>
-    <row r="9" spans="1:102">
+    <row r="9" spans="1:103">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -53489,10 +54080,13 @@
       <c r="CX9" t="n">
         <v>1274</v>
       </c>
+      <c r="CY9" t="n">
+        <v>1490</v>
+      </c>
     </row>
-    <row r="10" spans="1:102">
+    <row r="10" spans="1:103">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -53719,10 +54313,13 @@
       <c r="CX10" t="n">
         <v>4896</v>
       </c>
+      <c r="CY10" t="n">
+        <v>4980</v>
+      </c>
     </row>
-    <row r="11" spans="1:102">
+    <row r="11" spans="1:103">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -53967,10 +54564,13 @@
       <c r="CX11" t="n">
         <v>6184</v>
       </c>
+      <c r="CY11" t="n">
+        <v>6224</v>
+      </c>
     </row>
-    <row r="12" spans="1:102">
+    <row r="12" spans="1:103">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -54225,10 +54825,13 @@
       <c r="CX12" t="n">
         <v>2979</v>
       </c>
+      <c r="CY12" t="n">
+        <v>3079</v>
+      </c>
     </row>
-    <row r="13" spans="1:102">
+    <row r="13" spans="1:103">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -54449,10 +55052,13 @@
       <c r="CX13" t="n">
         <v>1037</v>
       </c>
+      <c r="CY13" t="n">
+        <v>967</v>
+      </c>
     </row>
-    <row r="14" spans="1:102">
+    <row r="14" spans="1:103">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s"/>
       <c r="C14" t="s"/>
@@ -54685,10 +55291,13 @@
       <c r="CX14" t="n">
         <v>289</v>
       </c>
+      <c r="CY14" t="n">
+        <v>251</v>
+      </c>
     </row>
-    <row r="15" spans="1:102">
+    <row r="15" spans="1:103">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -54937,10 +55546,13 @@
       <c r="CX15" t="n">
         <v>54692</v>
       </c>
+      <c r="CY15" t="n">
+        <v>58961</v>
+      </c>
     </row>
-    <row r="16" spans="1:102">
+    <row r="16" spans="1:103">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -55167,10 +55779,13 @@
       <c r="CX16" t="n">
         <v>317</v>
       </c>
+      <c r="CY16" t="n">
+        <v>327</v>
+      </c>
     </row>
-    <row r="17" spans="1:102">
+    <row r="17" spans="1:103">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -55399,10 +56014,13 @@
       <c r="CX17" t="n">
         <v>435</v>
       </c>
+      <c r="CY17" t="n">
+        <v>197</v>
+      </c>
     </row>
-    <row r="18" spans="1:102">
+    <row r="18" spans="1:103">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
@@ -55701,10 +56319,13 @@
       <c r="CX18" t="n">
         <v>11331</v>
       </c>
+      <c r="CY18" t="n">
+        <v>10992</v>
+      </c>
     </row>
-    <row r="19" spans="1:102">
+    <row r="19" spans="1:103">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -55941,10 +56562,13 @@
       <c r="CX19" t="n">
         <v>8964</v>
       </c>
+      <c r="CY19" t="n">
+        <v>8784</v>
+      </c>
     </row>
-    <row r="20" spans="1:102">
+    <row r="20" spans="1:103">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>5539</v>
@@ -56249,10 +56873,13 @@
       <c r="CX20" t="n">
         <v>17</v>
       </c>
+      <c r="CY20" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row r="21" spans="1:102">
+    <row r="21" spans="1:103">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -56483,10 +57110,13 @@
       <c r="CX21" t="n">
         <v>3045</v>
       </c>
+      <c r="CY21" t="n">
+        <v>3210</v>
+      </c>
     </row>
-    <row r="22" spans="1:102">
+    <row r="22" spans="1:103">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -56707,10 +57337,13 @@
       <c r="CX22" t="n">
         <v>269</v>
       </c>
+      <c r="CY22" t="n">
+        <v>305</v>
+      </c>
     </row>
-    <row r="23" spans="1:102">
+    <row r="23" spans="1:103">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -56961,10 +57594,13 @@
       <c r="CX23" t="n">
         <v>76</v>
       </c>
+      <c r="CY23" t="n">
+        <v>88</v>
+      </c>
     </row>
-    <row r="24" spans="1:102">
+    <row r="24" spans="1:103">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -57183,10 +57819,13 @@
       <c r="CX24" t="n">
         <v>204</v>
       </c>
+      <c r="CY24" t="n">
+        <v>143</v>
+      </c>
     </row>
-    <row r="25" spans="1:102">
+    <row r="25" spans="1:103">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -57427,10 +58066,13 @@
       <c r="CX25" t="n">
         <v>340</v>
       </c>
+      <c r="CY25" t="n">
+        <v>340</v>
+      </c>
     </row>
-    <row r="26" spans="1:102">
+    <row r="26" spans="1:103">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -57677,10 +58319,13 @@
       <c r="CX26" t="n">
         <v>907</v>
       </c>
+      <c r="CY26" t="n">
+        <v>912</v>
+      </c>
     </row>
-    <row r="27" spans="1:102">
+    <row r="27" spans="1:103">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -57887,10 +58532,13 @@
       <c r="CX27" t="n">
         <v>38</v>
       </c>
+      <c r="CY27" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row r="28" spans="1:102">
+    <row r="28" spans="1:103">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -58131,10 +58779,13 @@
       <c r="CX28" t="n">
         <v>2088</v>
       </c>
+      <c r="CY28" t="n">
+        <v>2304</v>
+      </c>
     </row>
-    <row r="29" spans="1:102">
+    <row r="29" spans="1:103">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -58375,10 +59026,13 @@
       <c r="CX29" t="n">
         <v>2482</v>
       </c>
+      <c r="CY29" t="n">
+        <v>1607</v>
+      </c>
     </row>
-    <row r="30" spans="1:102">
+    <row r="30" spans="1:103">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -58633,10 +59287,13 @@
       <c r="CX30" t="n">
         <v>2581</v>
       </c>
+      <c r="CY30" t="n">
+        <v>2771</v>
+      </c>
     </row>
-    <row r="31" spans="1:102">
+    <row r="31" spans="1:103">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -58883,10 +59540,13 @@
       <c r="CX31" t="n">
         <v>31</v>
       </c>
+      <c r="CY31" t="n">
+        <v>34</v>
+      </c>
     </row>
-    <row r="32" spans="1:102">
+    <row r="32" spans="1:103">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -59149,10 +59809,13 @@
       <c r="CX32" t="n">
         <v>687</v>
       </c>
+      <c r="CY32" t="n">
+        <v>704</v>
+      </c>
     </row>
-    <row r="33" spans="1:102">
+    <row r="33" spans="1:103">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="n">
         <v>5</v>
@@ -59451,10 +60114,13 @@
       <c r="CX33" t="n">
         <v>8897</v>
       </c>
+      <c r="CY33" t="n">
+        <v>8264</v>
+      </c>
     </row>
-    <row r="34" spans="1:102">
+    <row r="34" spans="1:103">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
         <v>4</v>
@@ -59745,10 +60411,13 @@
       <c r="CX34" t="n">
         <v>6511</v>
       </c>
+      <c r="CY34" t="n">
+        <v>6357</v>
+      </c>
     </row>
-    <row r="35" spans="1:102">
+    <row r="35" spans="1:103">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -59963,10 +60632,13 @@
       <c r="CX35" t="n">
         <v>1938</v>
       </c>
+      <c r="CY35" t="n">
+        <v>2094</v>
+      </c>
     </row>
-    <row r="36" spans="1:102">
+    <row r="36" spans="1:103">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -60215,10 +60887,13 @@
       <c r="CX36" t="n">
         <v>79</v>
       </c>
+      <c r="CY36" t="n">
+        <v>90</v>
+      </c>
     </row>
-    <row r="37" spans="1:102">
+    <row r="37" spans="1:103">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
@@ -60433,10 +61108,13 @@
       <c r="CX37" t="n">
         <v>472</v>
       </c>
+      <c r="CY37" t="n">
+        <v>456</v>
+      </c>
     </row>
-    <row r="38" spans="1:102">
+    <row r="38" spans="1:103">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -60657,10 +61335,13 @@
       <c r="CX38" t="n">
         <v>967</v>
       </c>
+      <c r="CY38" t="n">
+        <v>820</v>
+      </c>
     </row>
-    <row r="39" spans="1:102">
+    <row r="39" spans="1:103">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -60895,10 +61576,13 @@
       <c r="CX39" t="n">
         <v>315</v>
       </c>
+      <c r="CY39" t="n">
+        <v>271</v>
+      </c>
     </row>
-    <row r="40" spans="1:102">
+    <row r="40" spans="1:103">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -61143,10 +61827,13 @@
       <c r="CX40" t="n">
         <v>3</v>
       </c>
+      <c r="CY40" t="n">
+        <v>3</v>
+      </c>
     </row>
-    <row r="41" spans="1:102">
+    <row r="41" spans="1:103">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="n">
@@ -61407,10 +62094,13 @@
       <c r="CX41" t="n">
         <v>22438</v>
       </c>
+      <c r="CY41" t="n">
+        <v>23109</v>
+      </c>
     </row>
-    <row r="42" spans="1:102">
+    <row r="42" spans="1:103">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
@@ -61649,10 +62339,13 @@
       <c r="CX42" t="n">
         <v>2561</v>
       </c>
+      <c r="CY42" t="n">
+        <v>2802</v>
+      </c>
     </row>
-    <row r="43" spans="1:102">
+    <row r="43" spans="1:103">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -61915,10 +62608,13 @@
       <c r="CX43" t="n">
         <v>9045</v>
       </c>
+      <c r="CY43" t="n">
+        <v>9772</v>
+      </c>
     </row>
-    <row r="44" spans="1:102">
+    <row r="44" spans="1:103">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
@@ -62171,10 +62867,13 @@
       <c r="CX44" t="n">
         <v>450</v>
       </c>
+      <c r="CY44" t="n">
+        <v>460</v>
+      </c>
     </row>
-    <row r="45" spans="1:102">
+    <row r="45" spans="1:103">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s"/>
@@ -62417,10 +63116,13 @@
       <c r="CX45" t="n">
         <v>1708</v>
       </c>
+      <c r="CY45" t="n">
+        <v>1584</v>
+      </c>
     </row>
-    <row r="46" spans="1:102">
+    <row r="46" spans="1:103">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -62679,10 +63381,13 @@
       <c r="CX46" t="n">
         <v>335</v>
       </c>
+      <c r="CY46" t="n">
+        <v>269</v>
+      </c>
     </row>
-    <row r="47" spans="1:102">
+    <row r="47" spans="1:103">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="s"/>
@@ -62969,10 +63674,13 @@
       <c r="CX47" t="n">
         <v>9757</v>
       </c>
+      <c r="CY47" t="n">
+        <v>8940</v>
+      </c>
     </row>
-    <row r="48" spans="1:102">
+    <row r="48" spans="1:103">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
@@ -63277,10 +63985,13 @@
       <c r="CX48" t="n">
         <v>1270</v>
       </c>
+      <c r="CY48" t="n">
+        <v>1092</v>
+      </c>
     </row>
-    <row r="49" spans="1:102">
+    <row r="49" spans="1:103">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="s"/>
@@ -63497,10 +64208,13 @@
       <c r="CX49" t="n">
         <v>1237</v>
       </c>
+      <c r="CY49" t="n">
+        <v>1118</v>
+      </c>
     </row>
-    <row r="50" spans="1:102">
+    <row r="50" spans="1:103">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>3</v>
@@ -63805,10 +64519,13 @@
       <c r="CX50" t="n">
         <v>60</v>
       </c>
+      <c r="CY50" t="n">
+        <v>81</v>
+      </c>
     </row>
-    <row r="51" spans="1:102">
+    <row r="51" spans="1:103">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
@@ -64061,10 +64778,13 @@
       <c r="CX51" t="n">
         <v>2831</v>
       </c>
+      <c r="CY51" t="n">
+        <v>3004</v>
+      </c>
     </row>
-    <row r="52" spans="1:102">
+    <row r="52" spans="1:103">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -64299,10 +65019,13 @@
       <c r="CX52" t="n">
         <v>37</v>
       </c>
+      <c r="CY52" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="53" spans="1:102">
+    <row r="53" spans="1:103">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
@@ -64545,10 +65268,13 @@
       <c r="CX53" t="n">
         <v>69</v>
       </c>
+      <c r="CY53" t="n">
+        <v>65</v>
+      </c>
     </row>
-    <row r="54" spans="1:102">
+    <row r="54" spans="1:103">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="n">
         <v>7</v>
@@ -64843,10 +65569,13 @@
       <c r="CX54" t="n">
         <v>464</v>
       </c>
+      <c r="CY54" t="n">
+        <v>413</v>
+      </c>
     </row>
-    <row r="55" spans="1:102">
+    <row r="55" spans="1:103">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
@@ -65091,10 +65820,13 @@
       <c r="CX55" t="n">
         <v>10783</v>
       </c>
+      <c r="CY55" t="n">
+        <v>11372</v>
+      </c>
     </row>
-    <row r="56" spans="1:102">
+    <row r="56" spans="1:103">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
@@ -65321,10 +66053,13 @@
       <c r="CX56" t="n">
         <v>748</v>
       </c>
+      <c r="CY56" t="n">
+        <v>815</v>
+      </c>
     </row>
-    <row r="57" spans="1:102">
+    <row r="57" spans="1:103">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
@@ -65563,10 +66298,13 @@
       <c r="CX57" t="n">
         <v>1142</v>
       </c>
+      <c r="CY57" t="n">
+        <v>1181</v>
+      </c>
     </row>
-    <row r="58" spans="1:102">
+    <row r="58" spans="1:103">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
@@ -65813,10 +66551,13 @@
       <c r="CX58" t="n">
         <v>2303</v>
       </c>
+      <c r="CY58" t="n">
+        <v>2147</v>
+      </c>
     </row>
-    <row r="59" spans="1:102">
+    <row r="59" spans="1:103">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s"/>
@@ -66061,10 +66802,13 @@
       <c r="CX59" t="n">
         <v>7</v>
       </c>
+      <c r="CY59" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row r="60" spans="1:102">
+    <row r="60" spans="1:103">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
@@ -66301,10 +67045,13 @@
       <c r="CX60" t="n">
         <v>1742</v>
       </c>
+      <c r="CY60" t="n">
+        <v>1763</v>
+      </c>
     </row>
-    <row r="61" spans="1:102">
+    <row r="61" spans="1:103">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
@@ -66549,10 +67296,13 @@
       <c r="CX61" t="n">
         <v>92</v>
       </c>
+      <c r="CY61" t="n">
+        <v>116</v>
+      </c>
     </row>
-    <row r="62" spans="1:102">
+    <row r="62" spans="1:103">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
@@ -66801,10 +67551,13 @@
       <c r="CX62" t="n">
         <v>287</v>
       </c>
+      <c r="CY62" t="n">
+        <v>290</v>
+      </c>
     </row>
-    <row r="63" spans="1:102">
+    <row r="63" spans="1:103">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="s"/>
@@ -67057,10 +67810,13 @@
       <c r="CX63" t="n">
         <v>665</v>
       </c>
+      <c r="CY63" t="n">
+        <v>741</v>
+      </c>
     </row>
-    <row r="64" spans="1:102">
+    <row r="64" spans="1:103">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
@@ -67309,10 +68065,13 @@
       <c r="CX64" t="n">
         <v>8321</v>
       </c>
+      <c r="CY64" t="n">
+        <v>9633</v>
+      </c>
     </row>
-    <row r="65" spans="1:102">
+    <row r="65" spans="1:103">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
@@ -67535,10 +68294,13 @@
       <c r="CX65" t="n">
         <v>1350</v>
       </c>
+      <c r="CY65" t="n">
+        <v>1192</v>
+      </c>
     </row>
-    <row r="66" spans="1:102">
+    <row r="66" spans="1:103">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -67769,10 +68531,13 @@
       <c r="CX66" t="n">
         <v>21388</v>
       </c>
+      <c r="CY66" t="n">
+        <v>22481</v>
+      </c>
     </row>
-    <row r="67" spans="1:102">
+    <row r="67" spans="1:103">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="n">
@@ -68033,10 +68798,13 @@
       <c r="CX67" t="n">
         <v>1691</v>
       </c>
+      <c r="CY67" t="n">
+        <v>1682</v>
+      </c>
     </row>
-    <row r="68" spans="1:102">
+    <row r="68" spans="1:103">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="s"/>
@@ -68271,10 +69039,13 @@
       <c r="CX68" t="n">
         <v>2261</v>
       </c>
+      <c r="CY68" t="n">
+        <v>2276</v>
+      </c>
     </row>
-    <row r="69" spans="1:102">
+    <row r="69" spans="1:103">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="s"/>
@@ -68513,10 +69284,13 @@
       <c r="CX69" t="n">
         <v>1917</v>
       </c>
+      <c r="CY69" t="n">
+        <v>2216</v>
+      </c>
     </row>
-    <row r="70" spans="1:102">
+    <row r="70" spans="1:103">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s"/>
       <c r="C70" t="s"/>
@@ -68759,10 +69533,13 @@
       <c r="CX70" t="n">
         <v>6105</v>
       </c>
+      <c r="CY70" t="n">
+        <v>6459</v>
+      </c>
     </row>
-    <row r="71" spans="1:102">
+    <row r="71" spans="1:103">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s"/>
       <c r="C71" t="s"/>
@@ -69011,10 +69788,13 @@
       <c r="CX71" t="n">
         <v>2244</v>
       </c>
+      <c r="CY71" t="n">
+        <v>2399</v>
+      </c>
     </row>
-    <row r="72" spans="1:102">
+    <row r="72" spans="1:103">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s"/>
       <c r="C72" t="s"/>
@@ -69267,10 +70047,13 @@
       <c r="CX72" t="n">
         <v>73428</v>
       </c>
+      <c r="CY72" t="n">
+        <v>74622</v>
+      </c>
     </row>
-    <row r="73" spans="1:102">
+    <row r="73" spans="1:103">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s"/>
       <c r="C73" t="s"/>
@@ -69509,10 +70292,13 @@
       <c r="CX73" t="n">
         <v>11335</v>
       </c>
+      <c r="CY73" t="n">
+        <v>11677</v>
+      </c>
     </row>
-    <row r="74" spans="1:102">
+    <row r="74" spans="1:103">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s"/>
       <c r="C74" t="s"/>
@@ -69747,10 +70533,13 @@
       <c r="CX74" t="n">
         <v>527</v>
       </c>
+      <c r="CY74" t="n">
+        <v>519</v>
+      </c>
     </row>
-    <row r="75" spans="1:102">
+    <row r="75" spans="1:103">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s"/>
       <c r="C75" t="s"/>
@@ -69981,10 +70770,13 @@
       <c r="CX75" t="n">
         <v>934</v>
       </c>
+      <c r="CY75" t="n">
+        <v>670</v>
+      </c>
     </row>
-    <row r="76" spans="1:102">
+    <row r="76" spans="1:103">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B76" t="n">
         <v>7</v>
@@ -70289,10 +71081,13 @@
       <c r="CX76" t="n">
         <v>4606</v>
       </c>
+      <c r="CY76" t="n">
+        <v>4912</v>
+      </c>
     </row>
-    <row r="77" spans="1:102">
+    <row r="77" spans="1:103">
       <c r="A77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s"/>
       <c r="C77" t="s"/>
@@ -70523,10 +71318,13 @@
       <c r="CX77" t="n">
         <v>52</v>
       </c>
+      <c r="CY77" t="n">
+        <v>48</v>
+      </c>
     </row>
-    <row r="78" spans="1:102">
+    <row r="78" spans="1:103">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s"/>
       <c r="C78" t="s"/>
@@ -70759,10 +71557,13 @@
       <c r="CX78" t="n">
         <v>16</v>
       </c>
+      <c r="CY78" t="n">
+        <v>15</v>
+      </c>
     </row>
-    <row r="79" spans="1:102">
+    <row r="79" spans="1:103">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s"/>
       <c r="C79" t="s"/>
@@ -70995,10 +71796,13 @@
       <c r="CX79" t="n">
         <v>2944</v>
       </c>
+      <c r="CY79" t="n">
+        <v>3084</v>
+      </c>
     </row>
-    <row r="80" spans="1:102">
+    <row r="80" spans="1:103">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s"/>
       <c r="C80" t="s"/>
@@ -71277,10 +72081,13 @@
       <c r="CX80" t="n">
         <v>9422</v>
       </c>
+      <c r="CY80" t="n">
+        <v>6996</v>
+      </c>
     </row>
-    <row r="81" spans="1:102">
+    <row r="81" spans="1:103">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s"/>
       <c r="C81" t="s"/>
@@ -71497,10 +72304,13 @@
       <c r="CX81" t="n">
         <v>578</v>
       </c>
+      <c r="CY81" t="n">
+        <v>572</v>
+      </c>
     </row>
-    <row r="82" spans="1:102">
+    <row r="82" spans="1:103">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s"/>
       <c r="C82" t="s"/>
@@ -71763,10 +72573,13 @@
       <c r="CX82" t="n">
         <v>3745</v>
       </c>
+      <c r="CY82" t="n">
+        <v>3839</v>
+      </c>
     </row>
-    <row r="83" spans="1:102">
+    <row r="83" spans="1:103">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s"/>
       <c r="C83" t="s"/>
@@ -72017,10 +72830,13 @@
       <c r="CX83" t="n">
         <v>502</v>
       </c>
+      <c r="CY83" t="n">
+        <v>434</v>
+      </c>
     </row>
-    <row r="84" spans="1:102">
+    <row r="84" spans="1:103">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" t="n">
         <v>12</v>
@@ -72323,10 +73139,13 @@
       <c r="CX84" t="n">
         <v>40</v>
       </c>
+      <c r="CY84" t="n">
+        <v>38</v>
+      </c>
     </row>
-    <row r="85" spans="1:102">
+    <row r="85" spans="1:103">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s"/>
       <c r="C85" t="s"/>
@@ -72561,10 +73380,13 @@
       <c r="CX85" t="n">
         <v>32</v>
       </c>
+      <c r="CY85" t="n">
+        <v>23</v>
+      </c>
     </row>
-    <row r="86" spans="1:102">
+    <row r="86" spans="1:103">
       <c r="A86" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s"/>
       <c r="C86" t="s"/>
@@ -72785,10 +73607,13 @@
       <c r="CX86" t="n">
         <v>13177</v>
       </c>
+      <c r="CY86" t="n">
+        <v>12740</v>
+      </c>
     </row>
-    <row r="87" spans="1:102">
+    <row r="87" spans="1:103">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" t="n">
         <v>4</v>
@@ -73081,7 +73906,7 @@
         <v>191769</v>
       </c>
       <c r="CV87" t="n">
-        <v>188694</v>
+        <v>189422</v>
       </c>
       <c r="CW87" t="n">
         <v>187599</v>
@@ -73089,10 +73914,13 @@
       <c r="CX87" t="n">
         <v>180468</v>
       </c>
+      <c r="CY87" t="n">
+        <v>177011</v>
+      </c>
     </row>
-    <row r="88" spans="1:102">
+    <row r="88" spans="1:103">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s"/>
       <c r="C88" t="s"/>
@@ -73323,10 +74151,13 @@
       <c r="CX88" t="n">
         <v>3334</v>
       </c>
+      <c r="CY88" t="n">
+        <v>3299</v>
+      </c>
     </row>
-    <row r="89" spans="1:102">
+    <row r="89" spans="1:103">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
@@ -73631,10 +74462,13 @@
       <c r="CX89" t="n">
         <v>3755</v>
       </c>
+      <c r="CY89" t="n">
+        <v>3818</v>
+      </c>
     </row>
-    <row r="90" spans="1:102">
+    <row r="90" spans="1:103">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s"/>
       <c r="C90" t="s"/>
@@ -73925,10 +74759,13 @@
       <c r="CX90" t="n">
         <v>33944</v>
       </c>
+      <c r="CY90" t="n">
+        <v>33025</v>
+      </c>
     </row>
-    <row r="91" spans="1:102">
+    <row r="91" spans="1:103">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s"/>
       <c r="C91" t="s"/>
@@ -74141,10 +74978,13 @@
       <c r="CX91" t="n">
         <v>239</v>
       </c>
+      <c r="CY91" t="n">
+        <v>231</v>
+      </c>
     </row>
-    <row r="92" spans="1:102">
+    <row r="92" spans="1:103">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" t="n">
         <v>251</v>
@@ -74447,10 +75287,13 @@
       <c r="CX92" t="n">
         <v>1</v>
       </c>
+      <c r="CY92" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:102">
+    <row r="93" spans="1:103">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" t="n">
         <v>10</v>
@@ -74755,10 +75598,13 @@
       <c r="CX93" t="n">
         <v>5</v>
       </c>
+      <c r="CY93" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="94" spans="1:102">
+    <row r="94" spans="1:103">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" t="n">
         <v>3110</v>
@@ -75019,6 +75865,9 @@
       <c r="CV94" t="s"/>
       <c r="CW94" t="s"/>
       <c r="CX94" t="s"/>
+      <c r="CY94" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -75031,7 +75880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX94"/>
+  <dimension ref="A1:CY94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75039,7 +75888,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:103">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -75343,10 +76192,13 @@
       <c r="CX1" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="CY1" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:103">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s"/>
       <c r="C2" t="s"/>
@@ -75587,10 +76439,13 @@
       <c r="CX2" t="n">
         <v>0.4363471424251588</v>
       </c>
+      <c r="CY2" t="n">
+        <v>0.4428086070215175</v>
+      </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:103">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
@@ -75841,10 +76696,13 @@
       <c r="CX3" t="n">
         <v>0.4185325525318636</v>
       </c>
+      <c r="CY3" t="n">
+        <v>0.4191835380019914</v>
+      </c>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:103">
       <c r="A4" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
@@ -76081,10 +76939,13 @@
       <c r="CX4" t="n">
         <v>0.2729572476600051</v>
       </c>
+      <c r="CY4" t="n">
+        <v>0.2704371449740677</v>
+      </c>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:103">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -76317,10 +77178,13 @@
       <c r="CX5" t="n">
         <v>0.4862030905077263</v>
       </c>
+      <c r="CY5" t="n">
+        <v>0.4724986904138292</v>
+      </c>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:103">
       <c r="A6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="n">
         <v>0.8571428571428571</v>
@@ -76595,10 +77459,13 @@
       <c r="CX6" t="n">
         <v>0.1756587202007528</v>
       </c>
+      <c r="CY6" t="n">
+        <v>0.1752190237797246</v>
+      </c>
     </row>
-    <row r="7" spans="1:102">
+    <row r="7" spans="1:103">
       <c r="A7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -76849,10 +77716,13 @@
       <c r="CX7" t="n">
         <v>0.1253223310985044</v>
       </c>
+      <c r="CY7" t="n">
+        <v>0.1442812172088143</v>
+      </c>
     </row>
-    <row r="8" spans="1:102">
+    <row r="8" spans="1:103">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -77093,10 +77963,13 @@
       <c r="CX8" t="n">
         <v>0.6036931818181818</v>
       </c>
+      <c r="CY8" t="n">
+        <v>0.6575342465753424</v>
+      </c>
     </row>
-    <row r="9" spans="1:102">
+    <row r="9" spans="1:103">
       <c r="A9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -77349,10 +78222,13 @@
       <c r="CX9" t="n">
         <v>0.5270997103847745</v>
       </c>
+      <c r="CY9" t="n">
+        <v>0.5477941176470589</v>
+      </c>
     </row>
-    <row r="10" spans="1:102">
+    <row r="10" spans="1:103">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -77579,10 +78455,13 @@
       <c r="CX10" t="n">
         <v>0.4437194127243067</v>
       </c>
+      <c r="CY10" t="n">
+        <v>0.4384960817117197</v>
+      </c>
     </row>
-    <row r="11" spans="1:102">
+    <row r="11" spans="1:103">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -77827,10 +78706,13 @@
       <c r="CX11" t="n">
         <v>0.3959533871174286</v>
       </c>
+      <c r="CY11" t="n">
+        <v>0.3889270761732175</v>
+      </c>
     </row>
-    <row r="12" spans="1:102">
+    <row r="12" spans="1:103">
       <c r="A12" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -78085,10 +78967,13 @@
       <c r="CX12" t="n">
         <v>0.07675658962665224</v>
       </c>
+      <c r="CY12" t="n">
+        <v>0.07857398050324095</v>
+      </c>
     </row>
-    <row r="13" spans="1:102">
+    <row r="13" spans="1:103">
       <c r="A13" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -78309,10 +79194,13 @@
       <c r="CX13" t="n">
         <v>0.5108374384236454</v>
       </c>
+      <c r="CY13" t="n">
+        <v>0.4435779816513761</v>
+      </c>
     </row>
-    <row r="14" spans="1:102">
+    <row r="14" spans="1:103">
       <c r="A14" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s"/>
       <c r="C14" t="s"/>
@@ -78545,10 +79433,13 @@
       <c r="CX14" t="n">
         <v>0.2601260126012601</v>
       </c>
+      <c r="CY14" t="n">
+        <v>0.2432170542635659</v>
+      </c>
     </row>
-    <row r="15" spans="1:102">
+    <row r="15" spans="1:103">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s"/>
       <c r="C15" t="s"/>
@@ -78797,10 +79688,13 @@
       <c r="CX15" t="n">
         <v>0.6243521541587708</v>
       </c>
+      <c r="CY15" t="n">
+        <v>0.6247390783771469</v>
+      </c>
     </row>
-    <row r="16" spans="1:102">
+    <row r="16" spans="1:103">
       <c r="A16" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" t="s"/>
       <c r="C16" t="s"/>
@@ -79027,10 +79921,13 @@
       <c r="CX16" t="n">
         <v>0.2153532608695652</v>
       </c>
+      <c r="CY16" t="n">
+        <v>0.218</v>
+      </c>
     </row>
-    <row r="17" spans="1:102">
+    <row r="17" spans="1:103">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="s"/>
@@ -79259,10 +80156,13 @@
       <c r="CX17" t="n">
         <v>0.3436018957345972</v>
       </c>
+      <c r="CY17" t="n">
+        <v>0.1888782358581016</v>
+      </c>
     </row>
-    <row r="18" spans="1:102">
+    <row r="18" spans="1:103">
       <c r="A18" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B18" t="n">
         <v>0.6666666666666666</v>
@@ -79561,10 +80461,13 @@
       <c r="CX18" t="n">
         <v>0.3026765680094027</v>
       </c>
+      <c r="CY18" t="n">
+        <v>0.2918979207053137</v>
+      </c>
     </row>
-    <row r="19" spans="1:102">
+    <row r="19" spans="1:103">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="s"/>
@@ -79801,10 +80704,13 @@
       <c r="CX19" t="n">
         <v>0.6489538840222978</v>
       </c>
+      <c r="CY19" t="n">
+        <v>0.603586889301175</v>
+      </c>
     </row>
-    <row r="20" spans="1:102">
+    <row r="20" spans="1:103">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B20" t="n">
         <v>0.9281166219839142</v>
@@ -80109,10 +81015,13 @@
       <c r="CX20" t="n">
         <v>0.003410914927768861</v>
       </c>
+      <c r="CY20" t="n">
+        <v>0.006373355263157895</v>
+      </c>
     </row>
-    <row r="21" spans="1:102">
+    <row r="21" spans="1:103">
       <c r="A21" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="s"/>
@@ -80343,10 +81252,13 @@
       <c r="CX21" t="n">
         <v>0.3991872050340849</v>
       </c>
+      <c r="CY21" t="n">
+        <v>0.4049451242588621</v>
+      </c>
     </row>
-    <row r="22" spans="1:102">
+    <row r="22" spans="1:103">
       <c r="A22" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="s"/>
@@ -80567,10 +81479,13 @@
       <c r="CX22" t="n">
         <v>0.3168433451118963</v>
       </c>
+      <c r="CY22" t="n">
+        <v>0.339265850945495</v>
+      </c>
     </row>
-    <row r="23" spans="1:102">
+    <row r="23" spans="1:103">
       <c r="A23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="s"/>
@@ -80821,10 +81736,13 @@
       <c r="CX23" t="n">
         <v>0.160676532769556</v>
       </c>
+      <c r="CY23" t="n">
+        <v>0.1951219512195122</v>
+      </c>
     </row>
-    <row r="24" spans="1:102">
+    <row r="24" spans="1:103">
       <c r="A24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="s"/>
@@ -81043,10 +81961,13 @@
       <c r="CX24" t="n">
         <v>0.3072289156626506</v>
       </c>
+      <c r="CY24" t="n">
+        <v>0.232520325203252</v>
+      </c>
     </row>
-    <row r="25" spans="1:102">
+    <row r="25" spans="1:103">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="s"/>
@@ -81287,10 +82208,13 @@
       <c r="CX25" t="n">
         <v>0.0927694406548431</v>
       </c>
+      <c r="CY25" t="n">
+        <v>0.09317621266100301</v>
+      </c>
     </row>
-    <row r="26" spans="1:102">
+    <row r="26" spans="1:103">
       <c r="A26" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -81537,10 +82461,13 @@
       <c r="CX26" t="n">
         <v>0.3957242582897033</v>
       </c>
+      <c r="CY26" t="n">
+        <v>0.4095195330040413</v>
+      </c>
     </row>
-    <row r="27" spans="1:102">
+    <row r="27" spans="1:103">
       <c r="A27" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="s"/>
@@ -81747,10 +82674,13 @@
       <c r="CX27" t="n">
         <v>0.1217948717948718</v>
       </c>
+      <c r="CY27" t="n">
+        <v>0.2162921348314607</v>
+      </c>
     </row>
-    <row r="28" spans="1:102">
+    <row r="28" spans="1:103">
       <c r="A28" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="s"/>
@@ -81991,10 +82921,13 @@
       <c r="CX28" t="n">
         <v>0.2944577633620082</v>
       </c>
+      <c r="CY28" t="n">
+        <v>0.3156596794081381</v>
+      </c>
     </row>
-    <row r="29" spans="1:102">
+    <row r="29" spans="1:103">
       <c r="A29" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="s"/>
@@ -82235,10 +83168,13 @@
       <c r="CX29" t="n">
         <v>0.0977704246435043</v>
       </c>
+      <c r="CY29" t="n">
+        <v>0.0626779515581731</v>
+      </c>
     </row>
-    <row r="30" spans="1:102">
+    <row r="30" spans="1:103">
       <c r="A30" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="s"/>
@@ -82493,10 +83429,13 @@
       <c r="CX30" t="n">
         <v>0.3951316595223515</v>
       </c>
+      <c r="CY30" t="n">
+        <v>0.3979606491454833</v>
+      </c>
     </row>
-    <row r="31" spans="1:102">
+    <row r="31" spans="1:103">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -82743,10 +83682,13 @@
       <c r="CX31" t="n">
         <v>0.03033268101761252</v>
       </c>
+      <c r="CY31" t="n">
+        <v>0.03444782168186424</v>
+      </c>
     </row>
-    <row r="32" spans="1:102">
+    <row r="32" spans="1:103">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B32" t="n">
         <v>0.5</v>
@@ -83009,10 +83951,13 @@
       <c r="CX32" t="n">
         <v>0.3950546290971823</v>
       </c>
+      <c r="CY32" t="n">
+        <v>0.3742690058479532</v>
+      </c>
     </row>
-    <row r="33" spans="1:102">
+    <row r="33" spans="1:103">
       <c r="A33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B33" t="n">
         <v>0.8333333333333334</v>
@@ -83311,10 +84256,13 @@
       <c r="CX33" t="n">
         <v>0.0739500128832775</v>
       </c>
+      <c r="CY33" t="n">
+        <v>0.06850416545778588</v>
+      </c>
     </row>
-    <row r="34" spans="1:102">
+    <row r="34" spans="1:103">
       <c r="A34" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B34" t="n">
         <v>0.8</v>
@@ -83605,10 +84553,13 @@
       <c r="CX34" t="n">
         <v>0.2253799023849908</v>
       </c>
+      <c r="CY34" t="n">
+        <v>0.2268331846565566</v>
+      </c>
     </row>
-    <row r="35" spans="1:102">
+    <row r="35" spans="1:103">
       <c r="A35" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -83823,10 +84774,13 @@
       <c r="CX35" t="n">
         <v>0.5252032520325203</v>
       </c>
+      <c r="CY35" t="n">
+        <v>0.5388574369531652</v>
+      </c>
     </row>
-    <row r="36" spans="1:102">
+    <row r="36" spans="1:103">
       <c r="A36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="s"/>
@@ -84075,10 +85029,13 @@
       <c r="CX36" t="n">
         <v>0.05993930197268589</v>
       </c>
+      <c r="CY36" t="n">
+        <v>0.06731488406881077</v>
+      </c>
     </row>
-    <row r="37" spans="1:102">
+    <row r="37" spans="1:103">
       <c r="A37" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="s"/>
@@ -84293,10 +85250,13 @@
       <c r="CX37" t="n">
         <v>0.3504083147735709</v>
       </c>
+      <c r="CY37" t="n">
+        <v>0.3390334572490706</v>
+      </c>
     </row>
-    <row r="38" spans="1:102">
+    <row r="38" spans="1:103">
       <c r="A38" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="s"/>
@@ -84517,10 +85477,13 @@
       <c r="CX38" t="n">
         <v>0.6120253164556962</v>
       </c>
+      <c r="CY38" t="n">
+        <v>0.5012224938875306</v>
+      </c>
     </row>
-    <row r="39" spans="1:102">
+    <row r="39" spans="1:103">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="s"/>
@@ -84755,10 +85718,13 @@
       <c r="CX39" t="n">
         <v>0.1361279170267934</v>
       </c>
+      <c r="CY39" t="n">
+        <v>0.1173160173160173</v>
+      </c>
     </row>
-    <row r="40" spans="1:102">
+    <row r="40" spans="1:103">
       <c r="A40" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="s"/>
@@ -85003,10 +85969,13 @@
       <c r="CX40" t="n">
         <v>0.08108108108108109</v>
       </c>
+      <c r="CY40" t="n">
+        <v>0.103448275862069</v>
+      </c>
     </row>
-    <row r="41" spans="1:102">
+    <row r="41" spans="1:103">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="n">
@@ -85267,10 +86236,13 @@
       <c r="CX41" t="n">
         <v>0.536678705541869</v>
       </c>
+      <c r="CY41" t="n">
+        <v>0.5311436977107659</v>
+      </c>
     </row>
-    <row r="42" spans="1:102">
+    <row r="42" spans="1:103">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="s"/>
@@ -85509,10 +86481,13 @@
       <c r="CX42" t="n">
         <v>0.2411714850739241</v>
       </c>
+      <c r="CY42" t="n">
+        <v>0.2538273394329196</v>
+      </c>
     </row>
-    <row r="43" spans="1:102">
+    <row r="43" spans="1:103">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="s"/>
@@ -85775,10 +86750,13 @@
       <c r="CX43" t="n">
         <v>0.4337089426995924</v>
       </c>
+      <c r="CY43" t="n">
+        <v>0.4618802287658931</v>
+      </c>
     </row>
-    <row r="44" spans="1:102">
+    <row r="44" spans="1:103">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="s"/>
@@ -86031,10 +87009,13 @@
       <c r="CX44" t="n">
         <v>0.4772004241781548</v>
       </c>
+      <c r="CY44" t="n">
+        <v>0.4703476482617587</v>
+      </c>
     </row>
-    <row r="45" spans="1:102">
+    <row r="45" spans="1:103">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="s"/>
@@ -86277,10 +87258,13 @@
       <c r="CX45" t="n">
         <v>0.3144329896907216</v>
       </c>
+      <c r="CY45" t="n">
+        <v>0.2803043709078039</v>
+      </c>
     </row>
-    <row r="46" spans="1:102">
+    <row r="46" spans="1:103">
       <c r="A46" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="s"/>
@@ -86539,10 +87523,13 @@
       <c r="CX46" t="n">
         <v>0.06432411674347158</v>
       </c>
+      <c r="CY46" t="n">
+        <v>0.05296318172868675</v>
+      </c>
     </row>
-    <row r="47" spans="1:102">
+    <row r="47" spans="1:103">
       <c r="A47" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="s"/>
@@ -86829,10 +87816,13 @@
       <c r="CX47" t="n">
         <v>0.08257237883262951</v>
       </c>
+      <c r="CY47" t="n">
+        <v>0.07757857651122026</v>
+      </c>
     </row>
-    <row r="48" spans="1:102">
+    <row r="48" spans="1:103">
       <c r="A48" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B48" t="n">
         <v>0.7142857142857143</v>
@@ -87137,10 +88127,13 @@
       <c r="CX48" t="n">
         <v>0.1217641418983701</v>
       </c>
+      <c r="CY48" t="n">
+        <v>0.1119081779053085</v>
+      </c>
     </row>
-    <row r="49" spans="1:102">
+    <row r="49" spans="1:103">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="s"/>
@@ -87357,10 +88350,13 @@
       <c r="CX49" t="n">
         <v>0.3860799001248439</v>
       </c>
+      <c r="CY49" t="n">
+        <v>0.349375</v>
+      </c>
     </row>
-    <row r="50" spans="1:102">
+    <row r="50" spans="1:103">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B50" t="n">
         <v>0.6</v>
@@ -87665,10 +88661,13 @@
       <c r="CX50" t="n">
         <v>0.04713275726630008</v>
       </c>
+      <c r="CY50" t="n">
+        <v>0.06403162055335969</v>
+      </c>
     </row>
-    <row r="51" spans="1:102">
+    <row r="51" spans="1:103">
       <c r="A51" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="s"/>
@@ -87921,10 +88920,13 @@
       <c r="CX51" t="n">
         <v>0.5968796120598777</v>
       </c>
+      <c r="CY51" t="n">
+        <v>0.6005597760895641</v>
+      </c>
     </row>
-    <row r="52" spans="1:102">
+    <row r="52" spans="1:103">
       <c r="A52" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="s"/>
@@ -88159,10 +89161,13 @@
       <c r="CX52" t="n">
         <v>0.05505952380952381</v>
       </c>
+      <c r="CY52" t="n">
+        <v>0.06158833063209076</v>
+      </c>
     </row>
-    <row r="53" spans="1:102">
+    <row r="53" spans="1:103">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="s"/>
@@ -88405,10 +89410,13 @@
       <c r="CX53" t="n">
         <v>0.1994219653179191</v>
       </c>
+      <c r="CY53" t="n">
+        <v>0.1981707317073171</v>
+      </c>
     </row>
-    <row r="54" spans="1:102">
+    <row r="54" spans="1:103">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B54" t="n">
         <v>0.875</v>
@@ -88703,10 +89711,13 @@
       <c r="CX54" t="n">
         <v>0.277511961722488</v>
       </c>
+      <c r="CY54" t="n">
+        <v>0.2486453943407586</v>
+      </c>
     </row>
-    <row r="55" spans="1:102">
+    <row r="55" spans="1:103">
       <c r="A55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="s"/>
@@ -88951,10 +89962,13 @@
       <c r="CX55" t="n">
         <v>0.9619948255865822</v>
       </c>
+      <c r="CY55" t="n">
+        <v>0.977227807854258</v>
+      </c>
     </row>
-    <row r="56" spans="1:102">
+    <row r="56" spans="1:103">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="s"/>
@@ -89181,10 +90195,13 @@
       <c r="CX56" t="n">
         <v>0.2576644850155012</v>
       </c>
+      <c r="CY56" t="n">
+        <v>0.2769283044512402</v>
+      </c>
     </row>
-    <row r="57" spans="1:102">
+    <row r="57" spans="1:103">
       <c r="A57" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="s"/>
@@ -89423,10 +90440,13 @@
       <c r="CX57" t="n">
         <v>0.3370720188902007</v>
       </c>
+      <c r="CY57" t="n">
+        <v>0.3423188405797101</v>
+      </c>
     </row>
-    <row r="58" spans="1:102">
+    <row r="58" spans="1:103">
       <c r="A58" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="s"/>
@@ -89673,10 +90693,13 @@
       <c r="CX58" t="n">
         <v>0.05464338252740474</v>
       </c>
+      <c r="CY58" t="n">
+        <v>0.05059741239129922</v>
+      </c>
     </row>
-    <row r="59" spans="1:102">
+    <row r="59" spans="1:103">
       <c r="A59" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B59" t="s"/>
       <c r="C59" t="s"/>
@@ -89921,10 +90944,13 @@
       <c r="CX59" t="n">
         <v>0.056</v>
       </c>
+      <c r="CY59" t="n">
+        <v>0.0564516129032258</v>
+      </c>
     </row>
-    <row r="60" spans="1:102">
+    <row r="60" spans="1:103">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s"/>
       <c r="C60" t="s"/>
@@ -90161,10 +91187,13 @@
       <c r="CX60" t="n">
         <v>0.53865182436611</v>
       </c>
+      <c r="CY60" t="n">
+        <v>0.5174640446140299</v>
+      </c>
     </row>
-    <row r="61" spans="1:102">
+    <row r="61" spans="1:103">
       <c r="A61" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="s"/>
@@ -90409,10 +91438,13 @@
       <c r="CX61" t="n">
         <v>0.1885245901639344</v>
       </c>
+      <c r="CY61" t="n">
+        <v>0.2270058708414873</v>
+      </c>
     </row>
-    <row r="62" spans="1:102">
+    <row r="62" spans="1:103">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="s"/>
@@ -90661,10 +91693,13 @@
       <c r="CX62" t="n">
         <v>0.03570095783057594</v>
       </c>
+      <c r="CY62" t="n">
+        <v>0.03594447198810114</v>
+      </c>
     </row>
-    <row r="63" spans="1:102">
+    <row r="63" spans="1:103">
       <c r="A63" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="s"/>
@@ -90917,10 +91952,13 @@
       <c r="CX63" t="n">
         <v>0.3184865900383142</v>
       </c>
+      <c r="CY63" t="n">
+        <v>0.3435326842837274</v>
+      </c>
     </row>
-    <row r="64" spans="1:102">
+    <row r="64" spans="1:103">
       <c r="A64" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="s"/>
@@ -91169,10 +92207,13 @@
       <c r="CX64" t="n">
         <v>0.4401248280969005</v>
       </c>
+      <c r="CY64" t="n">
+        <v>0.4602924311926606</v>
+      </c>
     </row>
-    <row r="65" spans="1:102">
+    <row r="65" spans="1:103">
       <c r="A65" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="s"/>
@@ -91395,10 +92436,13 @@
       <c r="CX65" t="n">
         <v>0.1878914405010438</v>
       </c>
+      <c r="CY65" t="n">
+        <v>0.3151771549444738</v>
+      </c>
     </row>
-    <row r="66" spans="1:102">
+    <row r="66" spans="1:103">
       <c r="A66" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="s"/>
@@ -91629,10 +92673,13 @@
       <c r="CX66" t="n">
         <v>0.4992996544962182</v>
       </c>
+      <c r="CY66" t="n">
+        <v>0.5021442930533839</v>
+      </c>
     </row>
-    <row r="67" spans="1:102">
+    <row r="67" spans="1:103">
       <c r="A67" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="n">
@@ -91893,10 +92940,13 @@
       <c r="CX67" t="n">
         <v>0.1936998854524628</v>
       </c>
+      <c r="CY67" t="n">
+        <v>0.1918120652297867</v>
+      </c>
     </row>
-    <row r="68" spans="1:102">
+    <row r="68" spans="1:103">
       <c r="A68" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="s"/>
@@ -92131,10 +93181,13 @@
       <c r="CX68" t="n">
         <v>0.2220367278797997</v>
       </c>
+      <c r="CY68" t="n">
+        <v>0.2228095937347039</v>
+      </c>
     </row>
-    <row r="69" spans="1:102">
+    <row r="69" spans="1:103">
       <c r="A69" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="s"/>
@@ -92373,10 +93426,13 @@
       <c r="CX69" t="n">
         <v>0.0771521712882843</v>
       </c>
+      <c r="CY69" t="n">
+        <v>0.0889674000321182</v>
+      </c>
     </row>
-    <row r="70" spans="1:102">
+    <row r="70" spans="1:103">
       <c r="A70" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s"/>
       <c r="C70" t="s"/>
@@ -92619,10 +93675,13 @@
       <c r="CX70" t="n">
         <v>0.3423620457604307</v>
       </c>
+      <c r="CY70" t="n">
+        <v>0.3420536990944236</v>
+      </c>
     </row>
-    <row r="71" spans="1:102">
+    <row r="71" spans="1:103">
       <c r="A71" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B71" t="s"/>
       <c r="C71" t="s"/>
@@ -92871,10 +93930,13 @@
       <c r="CX71" t="n">
         <v>0.2674931457861485</v>
       </c>
+      <c r="CY71" t="n">
+        <v>0.2918491484184915</v>
+      </c>
     </row>
-    <row r="72" spans="1:102">
+    <row r="72" spans="1:103">
       <c r="A72" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B72" t="s"/>
       <c r="C72" t="s"/>
@@ -93127,10 +94189,13 @@
       <c r="CX72" t="n">
         <v>0.4553617939622454</v>
       </c>
+      <c r="CY72" t="n">
+        <v>0.4474787270404951</v>
+      </c>
     </row>
-    <row r="73" spans="1:102">
+    <row r="73" spans="1:103">
       <c r="A73" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s"/>
       <c r="C73" t="s"/>
@@ -93369,10 +94434,13 @@
       <c r="CX73" t="n">
         <v>0.4307756622201954</v>
       </c>
+      <c r="CY73" t="n">
+        <v>0.4325936353869522</v>
+      </c>
     </row>
-    <row r="74" spans="1:102">
+    <row r="74" spans="1:103">
       <c r="A74" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s"/>
       <c r="C74" t="s"/>
@@ -93607,10 +94675,13 @@
       <c r="CX74" t="n">
         <v>0.5600425079702445</v>
       </c>
+      <c r="CY74" t="n">
+        <v>0.5231854838709677</v>
+      </c>
     </row>
-    <row r="75" spans="1:102">
+    <row r="75" spans="1:103">
       <c r="A75" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" t="s"/>
       <c r="C75" t="s"/>
@@ -93841,10 +94912,13 @@
       <c r="CX75" t="n">
         <v>0.1246829528767855</v>
       </c>
+      <c r="CY75" t="n">
+        <v>0.09176825092453089</v>
+      </c>
     </row>
-    <row r="76" spans="1:102">
+    <row r="76" spans="1:103">
       <c r="A76" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B76" t="n">
         <v>0.875</v>
@@ -94149,10 +95223,13 @@
       <c r="CX76" t="n">
         <v>0.2341875127110026</v>
       </c>
+      <c r="CY76" t="n">
+        <v>0.2435903793701959</v>
+      </c>
     </row>
-    <row r="77" spans="1:102">
+    <row r="77" spans="1:103">
       <c r="A77" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s"/>
       <c r="C77" t="s"/>
@@ -94383,10 +95460,13 @@
       <c r="CX77" t="n">
         <v>0.09437386569872959</v>
       </c>
+      <c r="CY77" t="n">
+        <v>0.0893854748603352</v>
+      </c>
     </row>
-    <row r="78" spans="1:102">
+    <row r="78" spans="1:103">
       <c r="A78" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B78" t="s"/>
       <c r="C78" t="s"/>
@@ -94619,10 +95699,13 @@
       <c r="CX78" t="n">
         <v>0.01334445371142619</v>
       </c>
+      <c r="CY78" t="n">
+        <v>0.0125</v>
+      </c>
     </row>
-    <row r="79" spans="1:102">
+    <row r="79" spans="1:103">
       <c r="A79" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B79" t="s"/>
       <c r="C79" t="s"/>
@@ -94855,10 +95938,13 @@
       <c r="CX79" t="n">
         <v>0.512624064078008</v>
       </c>
+      <c r="CY79" t="n">
+        <v>0.5671202648032365</v>
+      </c>
     </row>
-    <row r="80" spans="1:102">
+    <row r="80" spans="1:103">
       <c r="A80" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B80" t="s"/>
       <c r="C80" t="s"/>
@@ -95137,10 +96223,13 @@
       <c r="CX80" t="n">
         <v>0.102736888016574</v>
       </c>
+      <c r="CY80" t="n">
+        <v>0.07805683555178684</v>
+      </c>
     </row>
-    <row r="81" spans="1:102">
+    <row r="81" spans="1:103">
       <c r="A81" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s"/>
       <c r="C81" t="s"/>
@@ -95357,10 +96446,13 @@
       <c r="CX81" t="n">
         <v>0.5722772277227722</v>
       </c>
+      <c r="CY81" t="n">
+        <v>0.5468451242829828</v>
+      </c>
     </row>
-    <row r="82" spans="1:102">
+    <row r="82" spans="1:103">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s"/>
       <c r="C82" t="s"/>
@@ -95623,10 +96715,13 @@
       <c r="CX82" t="n">
         <v>0.1845282089184528</v>
       </c>
+      <c r="CY82" t="n">
+        <v>0.1832370769891652</v>
+      </c>
     </row>
-    <row r="83" spans="1:102">
+    <row r="83" spans="1:103">
       <c r="A83" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B83" t="s"/>
       <c r="C83" t="s"/>
@@ -95877,10 +96972,13 @@
       <c r="CX83" t="n">
         <v>0.1222005842259007</v>
       </c>
+      <c r="CY83" t="n">
+        <v>0.112668743509865</v>
+      </c>
     </row>
-    <row r="84" spans="1:102">
+    <row r="84" spans="1:103">
       <c r="A84" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B84" t="n">
         <v>1.2</v>
@@ -96183,10 +97281,13 @@
       <c r="CX84" t="n">
         <v>0.184331797235023</v>
       </c>
+      <c r="CY84" t="n">
+        <v>0.1743119266055046</v>
+      </c>
     </row>
-    <row r="85" spans="1:102">
+    <row r="85" spans="1:103">
       <c r="A85" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B85" t="s"/>
       <c r="C85" t="s"/>
@@ -96421,10 +97522,13 @@
       <c r="CX85" t="n">
         <v>0.08142493638676845</v>
       </c>
+      <c r="CY85" t="n">
+        <v>0.06166219839142091</v>
+      </c>
     </row>
-    <row r="86" spans="1:102">
+    <row r="86" spans="1:103">
       <c r="A86" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B86" t="s"/>
       <c r="C86" t="s"/>
@@ -96645,10 +97749,13 @@
       <c r="CX86" t="n">
         <v>0.2679668117297759</v>
       </c>
+      <c r="CY86" t="n">
+        <v>0.2674447896548829</v>
+      </c>
     </row>
-    <row r="87" spans="1:102">
+    <row r="87" spans="1:103">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B87" t="n">
         <v>0.6666666666666666</v>
@@ -96941,7 +98048,7 @@
         <v>0.1890167274318646</v>
       </c>
       <c r="CV87" t="n">
-        <v>0.1816646673611285</v>
+        <v>0.1822378206349298</v>
       </c>
       <c r="CW87" t="n">
         <v>0.1766488886880078</v>
@@ -96949,10 +98056,13 @@
       <c r="CX87" t="n">
         <v>0.1663396123461547</v>
       </c>
+      <c r="CY87" t="n">
+        <v>0.1613566608357026</v>
+      </c>
     </row>
-    <row r="88" spans="1:102">
+    <row r="88" spans="1:103">
       <c r="A88" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B88" t="s"/>
       <c r="C88" t="s"/>
@@ -97183,10 +98293,13 @@
       <c r="CX88" t="n">
         <v>0.2901653611836379</v>
       </c>
+      <c r="CY88" t="n">
+        <v>0.2795288934078969</v>
+      </c>
     </row>
-    <row r="89" spans="1:102">
+    <row r="89" spans="1:103">
       <c r="A89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B89" t="n">
         <v>0.8</v>
@@ -97491,10 +98604,13 @@
       <c r="CX89" t="n">
         <v>0.2898047387512541</v>
       </c>
+      <c r="CY89" t="n">
+        <v>0.2909395717442658</v>
+      </c>
     </row>
-    <row r="90" spans="1:102">
+    <row r="90" spans="1:103">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B90" t="s"/>
       <c r="C90" t="s"/>
@@ -97785,10 +98901,13 @@
       <c r="CX90" t="n">
         <v>0.1603908653187357</v>
       </c>
+      <c r="CY90" t="n">
+        <v>0.1532304837025867</v>
+      </c>
     </row>
-    <row r="91" spans="1:102">
+    <row r="91" spans="1:103">
       <c r="A91" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B91" t="s"/>
       <c r="C91" t="s"/>
@@ -98001,10 +99120,13 @@
       <c r="CX91" t="n">
         <v>0.4337568058076225</v>
       </c>
+      <c r="CY91" t="n">
+        <v>0.4583333333333333</v>
+      </c>
     </row>
-    <row r="92" spans="1:102">
+    <row r="92" spans="1:103">
       <c r="A92" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92" t="n">
         <v>0.9194139194139194</v>
@@ -98307,10 +99429,13 @@
       <c r="CX92" t="n">
         <v>0.06666666666666667</v>
       </c>
+      <c r="CY92" t="n">
+        <v>0.07142857142857142</v>
+      </c>
     </row>
-    <row r="93" spans="1:102">
+    <row r="93" spans="1:103">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B93" t="n">
         <v>0.9090909090909091</v>
@@ -98615,10 +99740,13 @@
       <c r="CX93" t="n">
         <v>0.05882352941176471</v>
       </c>
+      <c r="CY93" t="n">
+        <v>0.0641025641025641</v>
+      </c>
     </row>
-    <row r="94" spans="1:102">
+    <row r="94" spans="1:103">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" t="n">
         <v>0.8970291318142486</v>
@@ -98879,6 +100007,9 @@
       <c r="CV94" t="s"/>
       <c r="CW94" t="s"/>
       <c r="CX94" t="s"/>
+      <c r="CY94" t="n">
+        <v>0.0002215330084182543</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
